--- a/possible_street_pairs_cleaned.xlsx
+++ b/possible_street_pairs_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krschreyer/R Projects/data205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krschreyer/R Projects/data205/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7C812-A736-6E49-9A0D-3F374D60A32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038B3E5-90B2-D445-9FA8-18F922D1C14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="2180" windowWidth="17660" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="3120" windowWidth="27580" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1648">
   <si>
     <t>name.x</t>
   </si>
@@ -4958,6 +4958,12 @@
   </si>
   <si>
     <t>QUINCE ORCHARD ROAD</t>
+  </si>
+  <si>
+    <t>VEIRS MILL ROAD</t>
+  </si>
+  <si>
+    <t>UNIVERSITY BOULEVARD WEST</t>
   </si>
 </sst>
 </file>
@@ -5344,10 +5350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JM323"/>
+  <dimension ref="A1:JM324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13773,66 +13779,24 @@
     </row>
     <row r="201" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D201" t="s">
-        <v>1173</v>
-      </c>
-      <c r="CH201" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC201" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD201" t="s">
-        <v>984</v>
-      </c>
-      <c r="HG201" t="s">
-        <v>1174</v>
-      </c>
-      <c r="HN201" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ201" t="s">
-        <v>282</v>
-      </c>
-      <c r="HR201" t="s">
-        <v>282</v>
-      </c>
-      <c r="HS201" t="s">
-        <v>1175</v>
-      </c>
-      <c r="HT201" t="s">
-        <v>1176</v>
-      </c>
-      <c r="HV201" t="s">
-        <v>1177</v>
-      </c>
-      <c r="HX201" t="s">
-        <v>1178</v>
-      </c>
-      <c r="IC201" t="s">
-        <v>1178</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="202" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="D202" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="CH202" t="s">
         <v>276</v>
@@ -13841,53 +13805,86 @@
         <v>278</v>
       </c>
       <c r="HD202" t="s">
-        <v>279</v>
+        <v>984</v>
       </c>
       <c r="HG202" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="HN202" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="HQ202" t="s">
         <v>282</v>
       </c>
+      <c r="HR202" t="s">
+        <v>282</v>
+      </c>
+      <c r="HS202" t="s">
+        <v>1175</v>
+      </c>
+      <c r="HT202" t="s">
+        <v>1176</v>
+      </c>
+      <c r="HV202" t="s">
+        <v>1177</v>
+      </c>
       <c r="HX202" t="s">
-        <v>504</v>
+        <v>1178</v>
       </c>
       <c r="IC202" t="s">
-        <v>504</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="203" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D203" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="CH203" t="s">
         <v>276</v>
       </c>
+      <c r="HC203" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD203" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG203" t="s">
+        <v>1182</v>
+      </c>
+      <c r="HN203" t="s">
+        <v>288</v>
+      </c>
+      <c r="HQ203" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX203" t="s">
+        <v>504</v>
+      </c>
+      <c r="IC203" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="204" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D204" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="CH204" t="s">
         <v>276</v>
@@ -13895,141 +13892,126 @@
     </row>
     <row r="205" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D205" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AU205" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AW205" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="CH205" t="s">
-        <v>323</v>
-      </c>
-      <c r="DX205" t="s">
-        <v>571</v>
-      </c>
-      <c r="EV205" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D206" t="s">
-        <v>1195</v>
+        <v>1191</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>1192</v>
       </c>
       <c r="CH206" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC206" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD206" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG206" t="s">
-        <v>1196</v>
-      </c>
-      <c r="HN206" t="s">
-        <v>288</v>
-      </c>
-      <c r="HX206" t="s">
-        <v>295</v>
-      </c>
-      <c r="IC206" t="s">
-        <v>295</v>
+        <v>323</v>
+      </c>
+      <c r="DX206" t="s">
+        <v>571</v>
+      </c>
+      <c r="EV206" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ206" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D207" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="CH207" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="HC207" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD207" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG207" t="s">
+        <v>1196</v>
+      </c>
+      <c r="HN207" t="s">
+        <v>288</v>
+      </c>
+      <c r="HX207" t="s">
+        <v>295</v>
+      </c>
+      <c r="IC207" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D208" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="CH208" t="s">
-        <v>276</v>
-      </c>
-      <c r="DN208" t="s">
-        <v>430</v>
-      </c>
-      <c r="EV208" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ208" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D209" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="CH209" t="s">
         <v>276</v>
       </c>
-      <c r="CW209" t="s">
-        <v>351</v>
-      </c>
-      <c r="DH209" t="s">
-        <v>432</v>
-      </c>
       <c r="DN209" t="s">
         <v>430</v>
       </c>
-      <c r="GD209" t="s">
-        <v>563</v>
+      <c r="EV209" t="s">
+        <v>282</v>
       </c>
       <c r="GZ209" t="s">
         <v>277</v>
@@ -14037,208 +14019,199 @@
     </row>
     <row r="210" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D210" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="CH210" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV210" t="s">
+        <v>276</v>
+      </c>
+      <c r="CW210" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH210" t="s">
         <v>432</v>
       </c>
-      <c r="HC210" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD210" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG210" t="s">
-        <v>1209</v>
-      </c>
-      <c r="HN210" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ210" t="s">
-        <v>282</v>
+      <c r="DN210" t="s">
+        <v>430</v>
+      </c>
+      <c r="GD210" t="s">
+        <v>563</v>
+      </c>
+      <c r="GZ210" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D211" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="CH211" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="EV211" t="s">
+        <v>432</v>
+      </c>
+      <c r="HC211" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD211" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG211" t="s">
+        <v>1209</v>
+      </c>
+      <c r="HN211" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ211" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D212" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I212" t="s">
-        <v>282</v>
+        <v>1210</v>
       </c>
       <c r="CH212" t="s">
-        <v>183</v>
-      </c>
-      <c r="HC212" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD212" t="s">
-        <v>424</v>
-      </c>
-      <c r="HQ212" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D213" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>432</v>
+        <v>1214</v>
+      </c>
+      <c r="I213" t="s">
+        <v>282</v>
       </c>
       <c r="CH213" t="s">
-        <v>323</v>
-      </c>
-      <c r="DA213" t="s">
-        <v>495</v>
+        <v>183</v>
       </c>
       <c r="HC213" t="s">
         <v>278</v>
       </c>
       <c r="HD213" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG213" t="s">
-        <v>1218</v>
-      </c>
-      <c r="HN213" t="s">
-        <v>294</v>
-      </c>
-      <c r="HX213" t="s">
-        <v>300</v>
-      </c>
-      <c r="IC213" t="s">
-        <v>300</v>
+        <v>424</v>
+      </c>
+      <c r="HQ213" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="214" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D214" t="s">
-        <v>1221</v>
+        <v>1217</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>432</v>
       </c>
       <c r="CH214" t="s">
         <v>323</v>
       </c>
-      <c r="EV214" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ214" t="s">
-        <v>277</v>
+      <c r="DA214" t="s">
+        <v>495</v>
+      </c>
+      <c r="HC214" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD214" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG214" t="s">
+        <v>1218</v>
+      </c>
+      <c r="HN214" t="s">
+        <v>294</v>
+      </c>
+      <c r="HX214" t="s">
+        <v>300</v>
+      </c>
+      <c r="IC214" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="215" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D215" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="CH215" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="EV215" t="s">
+        <v>432</v>
       </c>
       <c r="GZ215" t="s">
         <v>277</v>
       </c>
-      <c r="HC215" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD215" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG215" t="s">
-        <v>1225</v>
-      </c>
-      <c r="HN215" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ215" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX215" t="s">
-        <v>573</v>
-      </c>
-      <c r="IC215" t="s">
-        <v>573</v>
-      </c>
     </row>
     <row r="216" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D216" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="CH216" t="s">
-        <v>350</v>
-      </c>
-      <c r="EV216" t="s">
-        <v>432</v>
+        <v>276</v>
+      </c>
+      <c r="GZ216" t="s">
+        <v>277</v>
       </c>
       <c r="HC216" t="s">
         <v>278</v>
@@ -14247,39 +14220,39 @@
         <v>279</v>
       </c>
       <c r="HG216" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="HN216" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="HQ216" t="s">
         <v>282</v>
       </c>
       <c r="HX216" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="IC216" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D217" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="CH217" t="s">
-        <v>323</v>
-      </c>
-      <c r="CW217" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="EV217" t="s">
+        <v>432</v>
       </c>
       <c r="HC217" t="s">
         <v>278</v>
@@ -14288,40 +14261,40 @@
         <v>279</v>
       </c>
       <c r="HG217" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="HN217" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="HQ217" t="s">
         <v>282</v>
       </c>
       <c r="HX217" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="IC217" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D218" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AA218" t="s">
-        <v>432</v>
+        <v>1232</v>
       </c>
       <c r="CH218" t="s">
         <v>323</v>
       </c>
+      <c r="CW218" t="s">
+        <v>351</v>
+      </c>
       <c r="HC218" t="s">
         <v>278</v>
       </c>
@@ -14329,33 +14302,33 @@
         <v>279</v>
       </c>
       <c r="HG218" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="HN218" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="HQ218" t="s">
         <v>282</v>
       </c>
       <c r="HX218" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
       <c r="IC218" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D219" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="AA219" t="s">
         <v>432</v>
@@ -14363,9 +14336,6 @@
       <c r="CH219" t="s">
         <v>323</v>
       </c>
-      <c r="EV219" t="s">
-        <v>432</v>
-      </c>
       <c r="HC219" t="s">
         <v>278</v>
       </c>
@@ -14373,13 +14343,13 @@
         <v>279</v>
       </c>
       <c r="HG219" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="HN219" t="s">
-        <v>637</v>
+        <v>288</v>
       </c>
       <c r="HQ219" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="HX219" t="s">
         <v>364</v>
@@ -14390,89 +14360,95 @@
     </row>
     <row r="220" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D220" t="s">
-        <v>1244</v>
+        <v>1240</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>432</v>
       </c>
       <c r="CH220" t="s">
-        <v>183</v>
+        <v>323</v>
+      </c>
+      <c r="EV220" t="s">
+        <v>432</v>
       </c>
       <c r="HC220" t="s">
         <v>278</v>
       </c>
       <c r="HD220" t="s">
         <v>279</v>
+      </c>
+      <c r="HG220" t="s">
+        <v>1241</v>
+      </c>
+      <c r="HN220" t="s">
+        <v>637</v>
+      </c>
+      <c r="HQ220" t="s">
+        <v>432</v>
+      </c>
+      <c r="HX220" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC220" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D221" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="CH221" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="HC221" t="s">
         <v>278</v>
       </c>
       <c r="HD221" t="s">
-        <v>424</v>
-      </c>
-      <c r="HG221" t="s">
-        <v>1248</v>
-      </c>
-      <c r="HN221" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ221" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX221" t="s">
-        <v>426</v>
-      </c>
-      <c r="IC221" t="s">
-        <v>426</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D222" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="CH222" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="HC222" t="s">
         <v>278</v>
       </c>
       <c r="HD222" t="s">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="HG222" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="HN222" t="s">
         <v>309</v>
@@ -14481,39 +14457,27 @@
         <v>282</v>
       </c>
       <c r="HX222" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="IC222" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="D223" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="CH223" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW223" t="s">
-        <v>606</v>
-      </c>
-      <c r="CX223" t="s">
-        <v>351</v>
-      </c>
-      <c r="CZ223" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN223" t="s">
-        <v>623</v>
+        <v>323</v>
       </c>
       <c r="HC223" t="s">
         <v>278</v>
@@ -14522,266 +14486,272 @@
         <v>279</v>
       </c>
       <c r="HG223" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="HN223" t="s">
-        <v>325</v>
+        <v>309</v>
+      </c>
+      <c r="HQ223" t="s">
+        <v>282</v>
       </c>
       <c r="HX223" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="IC223" t="s">
-        <v>504</v>
-      </c>
-      <c r="IW223" t="s">
-        <v>615</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D224" t="s">
-        <v>1259</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>432</v>
-      </c>
-      <c r="BS224" t="s">
-        <v>432</v>
+        <v>1255</v>
       </c>
       <c r="CH224" t="s">
-        <v>276</v>
-      </c>
-      <c r="EV224" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ224" t="s">
-        <v>519</v>
+        <v>350</v>
+      </c>
+      <c r="CW224" t="s">
+        <v>606</v>
+      </c>
+      <c r="CX224" t="s">
+        <v>351</v>
+      </c>
+      <c r="CZ224" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN224" t="s">
+        <v>623</v>
+      </c>
+      <c r="HC224" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD224" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG224" t="s">
+        <v>1256</v>
+      </c>
+      <c r="HN224" t="s">
+        <v>325</v>
+      </c>
+      <c r="HX224" t="s">
+        <v>487</v>
+      </c>
+      <c r="IC224" t="s">
+        <v>504</v>
+      </c>
+      <c r="IW224" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D225" t="s">
-        <v>1262</v>
+        <v>1259</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>432</v>
+      </c>
+      <c r="BS225" t="s">
+        <v>432</v>
       </c>
       <c r="CH225" t="s">
         <v>276</v>
       </c>
-      <c r="GD225" t="s">
-        <v>1263</v>
-      </c>
-      <c r="HC225" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD225" t="s">
-        <v>424</v>
-      </c>
-      <c r="HG225" t="s">
-        <v>1264</v>
-      </c>
-      <c r="HN225" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ225" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX225" t="s">
-        <v>433</v>
-      </c>
-      <c r="IC225" t="s">
-        <v>433</v>
+      <c r="EV225" t="s">
+        <v>282</v>
+      </c>
+      <c r="GZ225" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="226" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="D226" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="CH226" t="s">
         <v>276</v>
       </c>
-      <c r="DN226" t="s">
-        <v>430</v>
-      </c>
-      <c r="EV226" t="s">
-        <v>432</v>
+      <c r="GD226" t="s">
+        <v>1263</v>
       </c>
       <c r="HC226" t="s">
         <v>278</v>
       </c>
       <c r="HD226" t="s">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="HG226" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="HN226" t="s">
         <v>309</v>
       </c>
       <c r="HQ226" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="HX226" t="s">
-        <v>582</v>
+        <v>433</v>
       </c>
       <c r="IC226" t="s">
-        <v>582</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D227" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="CH227" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="DN227" t="s">
+        <v>430</v>
       </c>
       <c r="EV227" t="s">
         <v>432</v>
       </c>
+      <c r="HC227" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD227" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG227" t="s">
+        <v>1268</v>
+      </c>
+      <c r="HN227" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ227" t="s">
+        <v>432</v>
+      </c>
+      <c r="HX227" t="s">
+        <v>582</v>
+      </c>
+      <c r="IC227" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="228" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D228" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="CH228" t="s">
         <v>323</v>
       </c>
-      <c r="HC228" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD228" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG228" t="s">
-        <v>1275</v>
-      </c>
-      <c r="HN228" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ228" t="s">
-        <v>282</v>
+      <c r="EV228" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B229">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D229" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="CH229" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN229" t="s">
-        <v>513</v>
+        <v>323</v>
+      </c>
+      <c r="HC229" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD229" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG229" t="s">
+        <v>1275</v>
+      </c>
+      <c r="HN229" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ229" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="230" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D230" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="CH230" t="s">
-        <v>323</v>
-      </c>
-      <c r="HC230" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD230" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG230" t="s">
-        <v>1282</v>
-      </c>
-      <c r="HN230" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ230" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX230" t="s">
-        <v>315</v>
-      </c>
-      <c r="IC230" t="s">
-        <v>315</v>
+        <v>350</v>
+      </c>
+      <c r="DN230" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="231" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D231" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="CH231" t="s">
-        <v>276</v>
-      </c>
-      <c r="CW231" t="s">
-        <v>351</v>
-      </c>
-      <c r="GZ231" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="HC231" t="s">
         <v>278</v>
@@ -14790,39 +14760,39 @@
         <v>279</v>
       </c>
       <c r="HG231" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="HN231" t="s">
-        <v>309</v>
+        <v>325</v>
+      </c>
+      <c r="HQ231" t="s">
+        <v>282</v>
       </c>
       <c r="HX231" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
       <c r="IC231" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D232" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="CH232" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="CW232" t="s">
-        <v>495</v>
-      </c>
-      <c r="EV232" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="GZ232" t="s">
         <v>277</v>
@@ -14834,14 +14804,11 @@
         <v>279</v>
       </c>
       <c r="HG232" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="HN232" t="s">
         <v>309</v>
       </c>
-      <c r="HQ232" t="s">
-        <v>432</v>
-      </c>
       <c r="HX232" t="s">
         <v>438</v>
       </c>
@@ -14851,25 +14818,22 @@
     </row>
     <row r="233" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D233" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Y233" t="s">
-        <v>571</v>
-      </c>
-      <c r="AS233" t="s">
-        <v>362</v>
+        <v>1289</v>
       </c>
       <c r="CH233" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="CW233" t="s">
+        <v>495</v>
       </c>
       <c r="EV233" t="s">
         <v>432</v>
@@ -14884,34 +14848,49 @@
         <v>279</v>
       </c>
       <c r="HG233" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="HN233" t="s">
-        <v>294</v>
+        <v>309</v>
+      </c>
+      <c r="HQ233" t="s">
+        <v>432</v>
       </c>
       <c r="HX233" t="s">
-        <v>573</v>
+        <v>438</v>
       </c>
       <c r="IC233" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
     </row>
     <row r="234" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D234" t="s">
-        <v>1297</v>
+        <v>1293</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>571</v>
+      </c>
+      <c r="AS234" t="s">
+        <v>362</v>
       </c>
       <c r="CH234" t="s">
         <v>350</v>
       </c>
+      <c r="EV234" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ234" t="s">
+        <v>277</v>
+      </c>
       <c r="HC234" t="s">
         <v>278</v>
       </c>
@@ -14919,39 +14898,33 @@
         <v>279</v>
       </c>
       <c r="HG234" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="HN234" t="s">
         <v>294</v>
       </c>
-      <c r="HQ234" t="s">
-        <v>282</v>
-      </c>
       <c r="HX234" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="IC234" t="s">
-        <v>509</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D235" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O235" t="s">
-        <v>572</v>
+        <v>1297</v>
       </c>
       <c r="CH235" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="HC235" t="s">
         <v>278</v>
@@ -14960,36 +14933,39 @@
         <v>279</v>
       </c>
       <c r="HG235" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="HN235" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="HQ235" t="s">
         <v>282</v>
+      </c>
+      <c r="HX235" t="s">
+        <v>509</v>
+      </c>
+      <c r="IC235" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D236" t="s">
-        <v>1305</v>
+        <v>1301</v>
+      </c>
+      <c r="O236" t="s">
+        <v>572</v>
       </c>
       <c r="CH236" t="s">
-        <v>323</v>
-      </c>
-      <c r="DN236" t="s">
-        <v>623</v>
-      </c>
-      <c r="EV236" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="HC236" t="s">
         <v>278</v>
@@ -14998,10 +14974,10 @@
         <v>279</v>
       </c>
       <c r="HG236" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="HN236" t="s">
-        <v>559</v>
+        <v>325</v>
       </c>
       <c r="HQ236" t="s">
         <v>282</v>
@@ -15009,23 +14985,26 @@
     </row>
     <row r="237" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D237" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J237" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="CH237" t="s">
         <v>323</v>
       </c>
+      <c r="DN237" t="s">
+        <v>623</v>
+      </c>
+      <c r="EV237" t="s">
+        <v>432</v>
+      </c>
       <c r="HC237" t="s">
         <v>278</v>
       </c>
@@ -15033,165 +15012,165 @@
         <v>279</v>
       </c>
       <c r="HG237" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="HN237" t="s">
-        <v>309</v>
-      </c>
-      <c r="HX237" t="s">
-        <v>504</v>
-      </c>
-      <c r="IC237" t="s">
-        <v>504</v>
+        <v>559</v>
+      </c>
+      <c r="HQ237" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="D238" t="s">
-        <v>1314</v>
+        <v>1309</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1310</v>
       </c>
       <c r="CH238" t="s">
-        <v>350</v>
-      </c>
-      <c r="EV238" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR238" t="s">
-        <v>641</v>
+        <v>323</v>
       </c>
       <c r="HC238" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD238" t="s">
         <v>279</v>
       </c>
       <c r="HG238" t="s">
-        <v>1315</v>
-      </c>
-      <c r="HH238" t="s">
-        <v>644</v>
+        <v>1311</v>
       </c>
       <c r="HN238" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="HX238" t="s">
-        <v>289</v>
+        <v>504</v>
       </c>
       <c r="IC238" t="s">
-        <v>289</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B239">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D239" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="CH239" t="s">
         <v>350</v>
       </c>
-      <c r="CW239" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN239" t="s">
-        <v>623</v>
+      <c r="EV239" t="s">
+        <v>432</v>
+      </c>
+      <c r="FR239" t="s">
+        <v>641</v>
+      </c>
+      <c r="HC239" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD239" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG239" t="s">
+        <v>1315</v>
+      </c>
+      <c r="HH239" t="s">
+        <v>644</v>
+      </c>
+      <c r="HN239" t="s">
+        <v>294</v>
+      </c>
+      <c r="HX239" t="s">
+        <v>289</v>
+      </c>
+      <c r="IC239" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C240" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D240" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="CH240" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="CW240" t="s">
         <v>351</v>
       </c>
-      <c r="EV240" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ240" t="s">
-        <v>277</v>
+      <c r="DN240" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="241" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D241" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AW241" t="s">
-        <v>635</v>
+        <v>1321</v>
       </c>
       <c r="CH241" t="s">
         <v>323</v>
       </c>
-      <c r="HC241" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD241" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG241" t="s">
-        <v>1325</v>
-      </c>
-      <c r="HN241" t="s">
-        <v>559</v>
-      </c>
-      <c r="HQ241" t="s">
-        <v>282</v>
+      <c r="CW241" t="s">
+        <v>351</v>
+      </c>
+      <c r="EV241" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ241" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D242" t="s">
-        <v>1328</v>
+        <v>1324</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>635</v>
       </c>
       <c r="CH242" t="s">
         <v>323</v>
       </c>
-      <c r="EV242" t="s">
-        <v>432</v>
-      </c>
       <c r="HC242" t="s">
         <v>278</v>
       </c>
@@ -15199,37 +15178,34 @@
         <v>279</v>
       </c>
       <c r="HG242" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="HN242" t="s">
-        <v>637</v>
+        <v>559</v>
       </c>
       <c r="HQ242" t="s">
         <v>282</v>
-      </c>
-      <c r="HX242" t="s">
-        <v>546</v>
-      </c>
-      <c r="IC242" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D243" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="CH243" t="s">
         <v>323</v>
       </c>
+      <c r="EV243" t="s">
+        <v>432</v>
+      </c>
       <c r="HC243" t="s">
         <v>278</v>
       </c>
@@ -15237,36 +15213,36 @@
         <v>279</v>
       </c>
       <c r="HG243" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="HN243" t="s">
-        <v>294</v>
+        <v>637</v>
       </c>
       <c r="HQ243" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="HX243" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
       <c r="IC243" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D244" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="CH244" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="HC244" t="s">
         <v>278</v>
@@ -15275,13 +15251,13 @@
         <v>279</v>
       </c>
       <c r="HG244" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="HN244" t="s">
         <v>294</v>
       </c>
       <c r="HQ244" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="HX244" t="s">
         <v>346</v>
@@ -15292,16 +15268,16 @@
     </row>
     <row r="245" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D245" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="CH245" t="s">
         <v>276</v>
@@ -15313,36 +15289,36 @@
         <v>279</v>
       </c>
       <c r="HG245" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="HN245" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="HQ245" t="s">
         <v>282</v>
       </c>
       <c r="HX245" t="s">
-        <v>1342</v>
+        <v>346</v>
       </c>
       <c r="IC245" t="s">
-        <v>1342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="D246" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="CH246" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="HC246" t="s">
         <v>278</v>
@@ -15351,43 +15327,37 @@
         <v>279</v>
       </c>
       <c r="HG246" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="HN246" t="s">
         <v>325</v>
       </c>
       <c r="HQ246" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="HX246" t="s">
-        <v>346</v>
+        <v>1342</v>
       </c>
       <c r="IC246" t="s">
-        <v>346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="247" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D247" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="CH247" t="s">
         <v>323</v>
       </c>
-      <c r="DN247" t="s">
-        <v>623</v>
-      </c>
-      <c r="EV247" t="s">
-        <v>432</v>
-      </c>
       <c r="HC247" t="s">
         <v>278</v>
       </c>
@@ -15395,7 +15365,7 @@
         <v>279</v>
       </c>
       <c r="HG247" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="HN247" t="s">
         <v>325</v>
@@ -15403,288 +15373,294 @@
       <c r="HQ247" t="s">
         <v>432</v>
       </c>
+      <c r="HX247" t="s">
+        <v>346</v>
+      </c>
+      <c r="IC247" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="248" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D248" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="CH248" t="s">
         <v>323</v>
       </c>
       <c r="DN248" t="s">
-        <v>430</v>
+        <v>623</v>
+      </c>
+      <c r="EV248" t="s">
+        <v>432</v>
+      </c>
+      <c r="HC248" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD248" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG248" t="s">
+        <v>1350</v>
+      </c>
+      <c r="HN248" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ248" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D249" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AS249" t="s">
-        <v>362</v>
+        <v>1353</v>
       </c>
       <c r="CH249" t="s">
         <v>323</v>
       </c>
-      <c r="HC249" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD249" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG249" t="s">
-        <v>1357</v>
-      </c>
-      <c r="HN249" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ249" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX249" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC249" t="s">
-        <v>364</v>
+      <c r="DN249" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="250" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D250" t="s">
-        <v>1360</v>
+        <v>1356</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>362</v>
       </c>
       <c r="CH250" t="s">
-        <v>814</v>
-      </c>
-      <c r="CW250" t="s">
-        <v>351</v>
-      </c>
-      <c r="EV250" t="s">
-        <v>432</v>
-      </c>
-      <c r="GN250" t="s">
-        <v>1361</v>
+        <v>323</v>
+      </c>
+      <c r="HC250" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD250" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG250" t="s">
+        <v>1357</v>
+      </c>
+      <c r="HN250" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ250" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX250" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC250" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B251">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D251" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="CH251" t="s">
-        <v>323</v>
-      </c>
-      <c r="GZ251" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC251" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD251" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG251" t="s">
-        <v>1365</v>
-      </c>
-      <c r="HN251" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ251" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX251" t="s">
-        <v>1366</v>
-      </c>
-      <c r="HY251" t="s">
-        <v>1366</v>
-      </c>
-      <c r="IC251" t="s">
-        <v>770</v>
-      </c>
-      <c r="ID251" t="s">
-        <v>770</v>
+        <v>814</v>
+      </c>
+      <c r="CW251" t="s">
+        <v>351</v>
+      </c>
+      <c r="EV251" t="s">
+        <v>432</v>
+      </c>
+      <c r="GN251" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="252" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="D252" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="CH252" t="s">
-        <v>276</v>
-      </c>
-      <c r="EV252" t="s">
-        <v>432</v>
+        <v>323</v>
+      </c>
+      <c r="GZ252" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC252" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD252" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG252" t="s">
+        <v>1365</v>
+      </c>
+      <c r="HN252" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ252" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX252" t="s">
+        <v>1366</v>
+      </c>
+      <c r="HY252" t="s">
+        <v>1366</v>
+      </c>
+      <c r="IC252" t="s">
+        <v>770</v>
+      </c>
+      <c r="ID252" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="253" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D253" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="CH253" t="s">
-        <v>350</v>
-      </c>
-      <c r="HC253" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD253" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG253" t="s">
-        <v>1372</v>
-      </c>
-      <c r="HN253" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ253" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX253" t="s">
-        <v>770</v>
-      </c>
-      <c r="IC253" t="s">
-        <v>770</v>
+        <v>276</v>
+      </c>
+      <c r="EV253" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D254" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="CH254" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW254" t="s">
-        <v>614</v>
-      </c>
-      <c r="EV254" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR254" t="s">
-        <v>1376</v>
-      </c>
-      <c r="GZ254" t="s">
-        <v>277</v>
+        <v>350</v>
+      </c>
+      <c r="HC254" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD254" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG254" t="s">
+        <v>1372</v>
+      </c>
+      <c r="HN254" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ254" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX254" t="s">
+        <v>770</v>
+      </c>
+      <c r="IC254" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="255" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D255" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="CH255" t="s">
-        <v>323</v>
-      </c>
-      <c r="DN255" t="s">
-        <v>513</v>
+        <v>795</v>
+      </c>
+      <c r="CW255" t="s">
+        <v>614</v>
       </c>
       <c r="EV255" t="s">
         <v>432</v>
       </c>
-      <c r="HC255" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD255" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG255" t="s">
-        <v>1380</v>
-      </c>
-      <c r="HN255" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ255" t="s">
-        <v>282</v>
+      <c r="FR255" t="s">
+        <v>1376</v>
+      </c>
+      <c r="GZ255" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D256" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="CH256" t="s">
         <v>323</v>
       </c>
+      <c r="DN256" t="s">
+        <v>513</v>
+      </c>
       <c r="EV256" t="s">
         <v>432</v>
       </c>
-      <c r="GZ256" t="s">
-        <v>277</v>
-      </c>
       <c r="HC256" t="s">
         <v>278</v>
       </c>
@@ -15692,33 +15668,27 @@
         <v>279</v>
       </c>
       <c r="HG256" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="HN256" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="HQ256" t="s">
         <v>282</v>
-      </c>
-      <c r="HX256" t="s">
-        <v>770</v>
-      </c>
-      <c r="IC256" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D257" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="CH257" t="s">
         <v>323</v>
@@ -15726,6 +15696,9 @@
       <c r="EV257" t="s">
         <v>432</v>
       </c>
+      <c r="GZ257" t="s">
+        <v>277</v>
+      </c>
       <c r="HC257" t="s">
         <v>278</v>
       </c>
@@ -15733,27 +15706,33 @@
         <v>279</v>
       </c>
       <c r="HG257" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="HN257" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="HQ257" t="s">
         <v>282</v>
+      </c>
+      <c r="HX257" t="s">
+        <v>770</v>
+      </c>
+      <c r="IC257" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="D258" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="CH258" t="s">
         <v>323</v>
@@ -15768,10 +15747,10 @@
         <v>279</v>
       </c>
       <c r="HG258" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="HN258" t="s">
-        <v>637</v>
+        <v>294</v>
       </c>
       <c r="HQ258" t="s">
         <v>282</v>
@@ -15779,20 +15758,23 @@
     </row>
     <row r="259" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D259" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="CH259" t="s">
         <v>323</v>
       </c>
+      <c r="EV259" t="s">
+        <v>432</v>
+      </c>
       <c r="HC259" t="s">
         <v>278</v>
       </c>
@@ -15800,31 +15782,31 @@
         <v>279</v>
       </c>
       <c r="HG259" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="HN259" t="s">
-        <v>325</v>
+        <v>637</v>
+      </c>
+      <c r="HQ259" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="D260" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="CH260" t="s">
         <v>323</v>
       </c>
-      <c r="GZ260" t="s">
-        <v>277</v>
-      </c>
       <c r="HC260" t="s">
         <v>278</v>
       </c>
@@ -15832,83 +15814,68 @@
         <v>279</v>
       </c>
       <c r="HG260" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="HN260" t="s">
         <v>325</v>
       </c>
-      <c r="HQ260" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="261" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="D261" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="CH261" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW261" t="s">
-        <v>614</v>
-      </c>
-      <c r="DN261" t="s">
-        <v>755</v>
-      </c>
-      <c r="EV261" t="s">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="GZ261" t="s">
         <v>277</v>
       </c>
       <c r="HC261" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD261" t="s">
         <v>279</v>
       </c>
       <c r="HG261" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="HN261" t="s">
-        <v>559</v>
+        <v>325</v>
       </c>
       <c r="HQ261" t="s">
         <v>282</v>
-      </c>
-      <c r="HX261" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC261" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="262" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D262" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="CH262" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW262" t="s">
+        <v>614</v>
       </c>
       <c r="DN262" t="s">
-        <v>513</v>
+        <v>755</v>
       </c>
       <c r="EV262" t="s">
         <v>432</v>
@@ -15917,42 +15884,51 @@
         <v>277</v>
       </c>
       <c r="HC262" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD262" t="s">
         <v>279</v>
       </c>
       <c r="HG262" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="HN262" t="s">
-        <v>637</v>
+        <v>559</v>
+      </c>
+      <c r="HQ262" t="s">
+        <v>282</v>
       </c>
       <c r="HX262" t="s">
-        <v>504</v>
+        <v>364</v>
       </c>
       <c r="IC262" t="s">
-        <v>504</v>
+        <v>364</v>
       </c>
     </row>
     <row r="263" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D263" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="CH263" t="s">
         <v>323</v>
       </c>
       <c r="DN263" t="s">
-        <v>430</v>
+        <v>513</v>
+      </c>
+      <c r="EV263" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ263" t="s">
+        <v>277</v>
       </c>
       <c r="HC263" t="s">
         <v>278</v>
@@ -15961,115 +15937,115 @@
         <v>279</v>
       </c>
       <c r="HG263" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="HN263" t="s">
-        <v>325</v>
+        <v>637</v>
+      </c>
+      <c r="HX263" t="s">
+        <v>504</v>
+      </c>
+      <c r="IC263" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D264" t="s">
-        <v>1415</v>
-      </c>
-      <c r="U264" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="CH264" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW264" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="DN264" t="s">
-        <v>865</v>
-      </c>
-      <c r="EV264" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ264" t="s">
-        <v>277</v>
+        <v>430</v>
+      </c>
+      <c r="HC264" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD264" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG264" t="s">
+        <v>1412</v>
+      </c>
+      <c r="HN264" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="265" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D265" t="s">
-        <v>1419</v>
+        <v>1415</v>
+      </c>
+      <c r="U265" t="s">
+        <v>1416</v>
       </c>
       <c r="CH265" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="CW265" t="s">
         <v>351</v>
       </c>
-      <c r="DH265" t="s">
-        <v>432</v>
-      </c>
       <c r="DN265" t="s">
-        <v>430</v>
+        <v>865</v>
       </c>
       <c r="EV265" t="s">
         <v>432</v>
       </c>
-      <c r="GD265" t="s">
-        <v>685</v>
-      </c>
       <c r="GZ265" t="s">
         <v>277</v>
       </c>
-      <c r="HC265" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD265" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG265" t="s">
-        <v>1420</v>
-      </c>
-      <c r="HN265" t="s">
-        <v>637</v>
-      </c>
-      <c r="HX265" t="s">
-        <v>295</v>
-      </c>
-      <c r="IC265" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="266" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D266" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="CH266" t="s">
         <v>323</v>
       </c>
+      <c r="CW266" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH266" t="s">
+        <v>432</v>
+      </c>
       <c r="DN266" t="s">
-        <v>623</v>
+        <v>430</v>
+      </c>
+      <c r="EV266" t="s">
+        <v>432</v>
+      </c>
+      <c r="GD266" t="s">
+        <v>685</v>
+      </c>
+      <c r="GZ266" t="s">
+        <v>277</v>
       </c>
       <c r="HC266" t="s">
         <v>278</v>
@@ -16078,85 +16054,88 @@
         <v>279</v>
       </c>
       <c r="HG266" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="HN266" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ266" t="s">
-        <v>282</v>
+        <v>637</v>
+      </c>
+      <c r="HX266" t="s">
+        <v>295</v>
+      </c>
+      <c r="IC266" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="267" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D267" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="CH267" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="DN267" t="s">
         <v>623</v>
       </c>
-      <c r="EV267" t="s">
-        <v>432</v>
+      <c r="HC267" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD267" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG267" t="s">
+        <v>1424</v>
+      </c>
+      <c r="HN267" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ267" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D268" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="CH268" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="DN268" t="s">
+        <v>623</v>
       </c>
       <c r="EV268" t="s">
         <v>432</v>
       </c>
-      <c r="HC268" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD268" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG268" t="s">
-        <v>1431</v>
-      </c>
-      <c r="HN268" t="s">
-        <v>637</v>
-      </c>
-      <c r="HQ268" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="269" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D269" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="CH269" t="s">
         <v>323</v>
@@ -16171,33 +16150,27 @@
         <v>279</v>
       </c>
       <c r="HG269" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="HN269" t="s">
-        <v>325</v>
+        <v>637</v>
       </c>
       <c r="HQ269" t="s">
         <v>282</v>
-      </c>
-      <c r="HX269" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC269" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="270" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D270" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="CH270" t="s">
         <v>323</v>
@@ -16205,151 +16178,145 @@
       <c r="EV270" t="s">
         <v>432</v>
       </c>
+      <c r="HC270" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD270" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG270" t="s">
+        <v>1435</v>
+      </c>
+      <c r="HN270" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ270" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX270" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC270" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="271" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B271">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D271" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AS271" t="s">
-        <v>635</v>
+        <v>1438</v>
       </c>
       <c r="CH271" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW271" t="s">
-        <v>614</v>
-      </c>
-      <c r="DN271" t="s">
-        <v>755</v>
+        <v>323</v>
       </c>
       <c r="EV271" t="s">
         <v>432</v>
       </c>
-      <c r="FR271" t="s">
-        <v>1442</v>
-      </c>
-      <c r="GZ271" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC271" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD271" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG271" t="s">
-        <v>1443</v>
-      </c>
-      <c r="HH271" t="s">
-        <v>1444</v>
-      </c>
-      <c r="HN271" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ271" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX271" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC271" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="272" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="D272" t="s">
-        <v>1447</v>
+        <v>1441</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>635</v>
       </c>
       <c r="CH272" t="s">
         <v>795</v>
       </c>
+      <c r="CW272" t="s">
+        <v>614</v>
+      </c>
       <c r="DN272" t="s">
-        <v>513</v>
+        <v>755</v>
       </c>
       <c r="EV272" t="s">
         <v>432</v>
       </c>
+      <c r="FR272" t="s">
+        <v>1442</v>
+      </c>
+      <c r="GZ272" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC272" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD272" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG272" t="s">
+        <v>1443</v>
+      </c>
+      <c r="HH272" t="s">
+        <v>1444</v>
+      </c>
+      <c r="HN272" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ272" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX272" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC272" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="273" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D273" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="CH273" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC273" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD273" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG273" t="s">
-        <v>1451</v>
-      </c>
-      <c r="HN273" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ273" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX273" t="s">
-        <v>416</v>
-      </c>
-      <c r="IC273" t="s">
-        <v>416</v>
+        <v>795</v>
+      </c>
+      <c r="DN273" t="s">
+        <v>513</v>
+      </c>
+      <c r="EV273" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D274" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="CH274" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV274" t="s">
-        <v>282</v>
-      </c>
-      <c r="FU274" t="s">
-        <v>1455</v>
-      </c>
-      <c r="GZ274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="HC274" t="s">
         <v>278</v>
@@ -16358,33 +16325,45 @@
         <v>279</v>
       </c>
       <c r="HG274" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="HN274" t="s">
-        <v>325</v>
+        <v>294</v>
+      </c>
+      <c r="HQ274" t="s">
+        <v>282</v>
       </c>
       <c r="HX274" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="IC274" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="275" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D275" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="CH275" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="EV275" t="s">
+        <v>282</v>
+      </c>
+      <c r="FU275" t="s">
+        <v>1455</v>
+      </c>
+      <c r="GZ275" t="s">
+        <v>277</v>
       </c>
       <c r="HC275" t="s">
         <v>278</v>
@@ -16393,124 +16372,118 @@
         <v>279</v>
       </c>
       <c r="HG275" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="HN275" t="s">
-        <v>384</v>
-      </c>
-      <c r="HQ275" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="HX275" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="IC275" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="276" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D276" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="CH276" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW276" t="s">
-        <v>614</v>
-      </c>
-      <c r="EL276" t="s">
-        <v>1464</v>
-      </c>
-      <c r="FR276" t="s">
-        <v>873</v>
-      </c>
-      <c r="GZ276" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="HC276" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD276" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG276" t="s">
+        <v>1460</v>
+      </c>
+      <c r="HN276" t="s">
+        <v>384</v>
+      </c>
+      <c r="HQ276" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX276" t="s">
+        <v>358</v>
+      </c>
+      <c r="IC276" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="277" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D277" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="CH277" t="s">
         <v>795</v>
       </c>
       <c r="CW277" t="s">
-        <v>351</v>
+        <v>614</v>
+      </c>
+      <c r="EL277" t="s">
+        <v>1464</v>
       </c>
       <c r="FR277" t="s">
         <v>873</v>
       </c>
-      <c r="HC277" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD277" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG277" t="s">
-        <v>1468</v>
-      </c>
-      <c r="HH277" t="s">
-        <v>1469</v>
-      </c>
-      <c r="HN277" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ277" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX277" t="s">
-        <v>645</v>
-      </c>
-      <c r="IC277" t="s">
-        <v>346</v>
+      <c r="GZ277" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="D278" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="CH278" t="s">
-        <v>350</v>
-      </c>
-      <c r="GZ278" t="s">
-        <v>277</v>
+        <v>795</v>
+      </c>
+      <c r="CW278" t="s">
+        <v>351</v>
+      </c>
+      <c r="FR278" t="s">
+        <v>873</v>
       </c>
       <c r="HC278" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD278" t="s">
         <v>279</v>
       </c>
       <c r="HG278" t="s">
-        <v>1473</v>
+        <v>1468</v>
+      </c>
+      <c r="HH278" t="s">
+        <v>1469</v>
       </c>
       <c r="HN278" t="s">
         <v>294</v>
@@ -16519,284 +16492,302 @@
         <v>282</v>
       </c>
       <c r="HX278" t="s">
-        <v>364</v>
+        <v>645</v>
+      </c>
+      <c r="IC278" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D279" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="CH279" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV279" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="GZ279" t="s">
         <v>277</v>
       </c>
+      <c r="HC279" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD279" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG279" t="s">
+        <v>1473</v>
+      </c>
+      <c r="HN279" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ279" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX279" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="280" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="D280" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="CH280" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN280" t="s">
-        <v>815</v>
-      </c>
-      <c r="FR280" t="s">
-        <v>873</v>
+        <v>323</v>
+      </c>
+      <c r="EV280" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ280" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D281" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="CH281" t="s">
-        <v>276</v>
-      </c>
-      <c r="EH281" t="s">
-        <v>1483</v>
-      </c>
-      <c r="HC281" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD281" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG281" t="s">
-        <v>1484</v>
-      </c>
-      <c r="HH281" t="s">
-        <v>1485</v>
-      </c>
-      <c r="HN281" t="s">
-        <v>329</v>
-      </c>
-      <c r="HO281" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ281" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX281" t="s">
-        <v>573</v>
-      </c>
-      <c r="IC281" t="s">
-        <v>573</v>
+        <v>350</v>
+      </c>
+      <c r="DN281" t="s">
+        <v>815</v>
+      </c>
+      <c r="FR281" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="282" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D282" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Y282" t="s">
-        <v>432</v>
+        <v>1482</v>
       </c>
       <c r="CH282" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW282" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN282" t="s">
-        <v>755</v>
-      </c>
-      <c r="DX282" t="s">
-        <v>432</v>
-      </c>
-      <c r="EV282" t="s">
-        <v>282</v>
-      </c>
-      <c r="FR282" t="s">
-        <v>1489</v>
-      </c>
-      <c r="GD282" t="s">
-        <v>1192</v>
-      </c>
-      <c r="GZ282" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="EH282" t="s">
+        <v>1483</v>
       </c>
       <c r="HC282" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD282" t="s">
-        <v>984</v>
+        <v>279</v>
       </c>
       <c r="HG282" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="HH282" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="HN282" t="s">
-        <v>294</v>
+        <v>329</v>
+      </c>
+      <c r="HO282" t="s">
+        <v>325</v>
       </c>
       <c r="HQ282" t="s">
         <v>282</v>
       </c>
       <c r="HX282" t="s">
-        <v>1492</v>
+        <v>573</v>
+      </c>
+      <c r="IC282" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="D283" t="s">
-        <v>1495</v>
+        <v>1488</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>432</v>
       </c>
       <c r="CH283" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW283" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN283" t="s">
+        <v>755</v>
+      </c>
+      <c r="DX283" t="s">
+        <v>432</v>
+      </c>
+      <c r="EV283" t="s">
+        <v>282</v>
+      </c>
+      <c r="FR283" t="s">
+        <v>1489</v>
+      </c>
+      <c r="GD283" t="s">
+        <v>1192</v>
+      </c>
+      <c r="GZ283" t="s">
+        <v>277</v>
       </c>
       <c r="HC283" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD283" t="s">
-        <v>279</v>
+        <v>984</v>
       </c>
       <c r="HG283" t="s">
-        <v>1496</v>
+        <v>1490</v>
+      </c>
+      <c r="HH283" t="s">
+        <v>1491</v>
       </c>
       <c r="HN283" t="s">
-        <v>559</v>
+        <v>294</v>
       </c>
       <c r="HQ283" t="s">
         <v>282</v>
+      </c>
+      <c r="HX283" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="284" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="D284" t="s">
-        <v>1499</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>571</v>
+        <v>1495</v>
       </c>
       <c r="CH284" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW284" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN284" t="s">
-        <v>623</v>
-      </c>
-      <c r="FR284" t="s">
-        <v>1500</v>
+        <v>323</v>
       </c>
       <c r="HC284" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD284" t="s">
         <v>279</v>
       </c>
       <c r="HG284" t="s">
-        <v>1501</v>
-      </c>
-      <c r="HH284" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="HN284" t="s">
-        <v>294</v>
-      </c>
-      <c r="HX284" t="s">
-        <v>315</v>
-      </c>
-      <c r="IC284" t="s">
-        <v>315</v>
+        <v>559</v>
+      </c>
+      <c r="HQ284" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="D285" t="s">
-        <v>1503</v>
+        <v>1499</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>571</v>
       </c>
       <c r="CH285" t="s">
-        <v>276</v>
-      </c>
-      <c r="EV285" t="s">
-        <v>432</v>
+        <v>350</v>
+      </c>
+      <c r="CW285" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN285" t="s">
+        <v>623</v>
+      </c>
+      <c r="FR285" t="s">
+        <v>1500</v>
+      </c>
+      <c r="HC285" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD285" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG285" t="s">
+        <v>1501</v>
+      </c>
+      <c r="HH285" t="s">
+        <v>1502</v>
+      </c>
+      <c r="HN285" t="s">
+        <v>294</v>
+      </c>
+      <c r="HX285" t="s">
+        <v>315</v>
+      </c>
+      <c r="IC285" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="286" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B286">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D286" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="CH286" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN286" t="s">
-        <v>513</v>
+        <v>276</v>
       </c>
       <c r="EV286" t="s">
         <v>432</v>
@@ -16804,140 +16795,122 @@
     </row>
     <row r="287" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D287" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="CH287" t="s">
         <v>350</v>
       </c>
-      <c r="CW287" t="s">
-        <v>614</v>
-      </c>
       <c r="DN287" t="s">
-        <v>430</v>
-      </c>
-      <c r="EL287" t="s">
-        <v>1511</v>
-      </c>
-      <c r="GZ287" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC287" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD287" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG287" t="s">
-        <v>1512</v>
-      </c>
-      <c r="HN287" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ287" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX287" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC287" t="s">
-        <v>364</v>
+        <v>513</v>
+      </c>
+      <c r="EV287" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="288" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="B288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="D288" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="CH288" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV288" t="s">
-        <v>432</v>
+        <v>350</v>
+      </c>
+      <c r="CW288" t="s">
+        <v>614</v>
+      </c>
+      <c r="DN288" t="s">
+        <v>430</v>
+      </c>
+      <c r="EL288" t="s">
+        <v>1511</v>
       </c>
       <c r="GZ288" t="s">
         <v>277</v>
       </c>
+      <c r="HC288" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD288" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG288" t="s">
+        <v>1512</v>
+      </c>
+      <c r="HN288" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ288" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX288" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC288" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="289" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D289" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AS289" t="s">
-        <v>635</v>
+        <v>1515</v>
       </c>
       <c r="CH289" t="s">
         <v>323</v>
       </c>
-      <c r="CW289" t="s">
-        <v>351</v>
-      </c>
-      <c r="HC289" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD289" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG289" t="s">
-        <v>1519</v>
-      </c>
-      <c r="HN289" t="s">
-        <v>410</v>
-      </c>
-      <c r="HQ289" t="s">
-        <v>282</v>
+      <c r="EV289" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ289" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="290" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D290" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E290" t="s">
-        <v>1523</v>
+        <v>1518</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>635</v>
       </c>
       <c r="CH290" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="CW290" t="s">
         <v>351</v>
       </c>
-      <c r="EV290" t="s">
-        <v>432</v>
-      </c>
       <c r="HC290" t="s">
         <v>278</v>
       </c>
@@ -16945,7 +16918,7 @@
         <v>279</v>
       </c>
       <c r="HG290" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="HN290" t="s">
         <v>410</v>
@@ -16953,96 +16926,96 @@
       <c r="HQ290" t="s">
         <v>282</v>
       </c>
-      <c r="HX290" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC290" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="291" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="D291" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I291" t="s">
-        <v>1528</v>
+        <v>1522</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1523</v>
       </c>
       <c r="CH291" t="s">
-        <v>276</v>
+        <v>350</v>
+      </c>
+      <c r="CW291" t="s">
+        <v>351</v>
+      </c>
+      <c r="EV291" t="s">
+        <v>432</v>
+      </c>
+      <c r="HC291" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD291" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG291" t="s">
+        <v>1524</v>
+      </c>
+      <c r="HN291" t="s">
+        <v>410</v>
+      </c>
+      <c r="HQ291" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX291" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC291" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="292" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D292" t="s">
-        <v>1531</v>
+        <v>1527</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1528</v>
       </c>
       <c r="CH292" t="s">
         <v>276</v>
       </c>
-      <c r="DH292" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ292" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC292" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD292" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG292" t="s">
-        <v>1532</v>
-      </c>
-      <c r="HN292" t="s">
-        <v>325</v>
-      </c>
-      <c r="HX292" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC292" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="293" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B293">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D293" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="CH293" t="s">
-        <v>323</v>
-      </c>
-      <c r="DN293" t="s">
-        <v>430</v>
-      </c>
-      <c r="EV293" t="s">
+        <v>276</v>
+      </c>
+      <c r="DH293" t="s">
         <v>432</v>
       </c>
+      <c r="GZ293" t="s">
+        <v>277</v>
+      </c>
       <c r="HC293" t="s">
         <v>278</v>
       </c>
@@ -17050,10 +17023,10 @@
         <v>279</v>
       </c>
       <c r="HG293" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="HN293" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="HX293" t="s">
         <v>438</v>
@@ -17064,153 +17037,141 @@
     </row>
     <row r="294" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B294">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D294" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="CH294" t="s">
-        <v>183</v>
+        <v>323</v>
+      </c>
+      <c r="DN294" t="s">
+        <v>430</v>
       </c>
       <c r="EV294" t="s">
         <v>432</v>
       </c>
+      <c r="HC294" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD294" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG294" t="s">
+        <v>1536</v>
+      </c>
+      <c r="HN294" t="s">
+        <v>309</v>
+      </c>
+      <c r="HX294" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC294" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="295" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D295" t="s">
-        <v>1541</v>
+        <v>1646</v>
       </c>
       <c r="CH295" t="s">
-        <v>276</v>
-      </c>
-      <c r="GZ295" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC295" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD295" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG295" t="s">
-        <v>1542</v>
-      </c>
-      <c r="HN295" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ295" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX295" t="s">
-        <v>370</v>
-      </c>
-      <c r="IC295" t="s">
-        <v>370</v>
+        <v>183</v>
+      </c>
+      <c r="EV295" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="296" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D296" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="CH296" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV296" t="s">
-        <v>432</v>
+        <v>276</v>
+      </c>
+      <c r="GZ296" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC296" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD296" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG296" t="s">
+        <v>1542</v>
+      </c>
+      <c r="HN296" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ296" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX296" t="s">
+        <v>370</v>
+      </c>
+      <c r="IC296" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="297" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D297" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="CH297" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC297" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD297" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG297" t="s">
-        <v>1549</v>
-      </c>
-      <c r="HN297" t="s">
-        <v>410</v>
-      </c>
-      <c r="HQ297" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX297" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC297" t="s">
-        <v>364</v>
+        <v>323</v>
+      </c>
+      <c r="EV297" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D298" t="s">
-        <v>1552</v>
-      </c>
-      <c r="Y298" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU298" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AW298" t="s">
-        <v>635</v>
+        <v>1548</v>
       </c>
       <c r="CH298" t="s">
-        <v>323</v>
-      </c>
-      <c r="DX298" t="s">
-        <v>432</v>
-      </c>
-      <c r="EV298" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="HC298" t="s">
         <v>278</v>
@@ -17219,268 +17180,301 @@
         <v>279</v>
       </c>
       <c r="HG298" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="HN298" t="s">
-        <v>559</v>
+        <v>410</v>
       </c>
       <c r="HQ298" t="s">
         <v>282</v>
+      </c>
+      <c r="HX298" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC298" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="299" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="D299" t="s">
-        <v>1557</v>
+        <v>1552</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU299" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AW299" t="s">
+        <v>635</v>
       </c>
       <c r="CH299" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="DX299" t="s">
+        <v>432</v>
       </c>
       <c r="EV299" t="s">
         <v>432</v>
       </c>
-      <c r="GZ299" t="s">
-        <v>277</v>
+      <c r="HC299" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD299" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG299" t="s">
+        <v>1554</v>
+      </c>
+      <c r="HN299" t="s">
+        <v>559</v>
+      </c>
+      <c r="HQ299" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="B300">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D300" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="CH300" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW300" t="s">
-        <v>606</v>
-      </c>
-      <c r="DN300" t="s">
-        <v>513</v>
-      </c>
-      <c r="FR300" t="s">
-        <v>1561</v>
-      </c>
-      <c r="HC300" t="s">
-        <v>1562</v>
-      </c>
-      <c r="HD300" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG300" t="s">
-        <v>1563</v>
-      </c>
-      <c r="HH300" t="s">
-        <v>1564</v>
-      </c>
-      <c r="HN300" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ300" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX300" t="s">
-        <v>370</v>
-      </c>
-      <c r="IC300" t="s">
-        <v>370</v>
+        <v>350</v>
+      </c>
+      <c r="EV300" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ300" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="301" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="D301" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="CH301" t="s">
-        <v>276</v>
-      </c>
-      <c r="EV301" t="s">
-        <v>432</v>
+        <v>795</v>
+      </c>
+      <c r="CW301" t="s">
+        <v>606</v>
+      </c>
+      <c r="DN301" t="s">
+        <v>513</v>
+      </c>
+      <c r="FR301" t="s">
+        <v>1561</v>
       </c>
       <c r="HC301" t="s">
-        <v>278</v>
+        <v>1562</v>
       </c>
       <c r="HD301" t="s">
         <v>279</v>
       </c>
       <c r="HG301" t="s">
-        <v>1568</v>
+        <v>1563</v>
+      </c>
+      <c r="HH301" t="s">
+        <v>1564</v>
       </c>
       <c r="HN301" t="s">
         <v>309</v>
       </c>
+      <c r="HQ301" t="s">
+        <v>282</v>
+      </c>
       <c r="HX301" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="IC301" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="302" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B302">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D302" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="CH302" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="EV302" t="s">
         <v>432</v>
       </c>
-      <c r="FR302" t="s">
-        <v>1376</v>
+      <c r="HC302" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD302" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG302" t="s">
+        <v>1568</v>
+      </c>
+      <c r="HN302" t="s">
+        <v>309</v>
+      </c>
+      <c r="HX302" t="s">
+        <v>375</v>
+      </c>
+      <c r="IC302" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="303" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D303" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="CH303" t="s">
-        <v>795</v>
+        <v>350</v>
       </c>
       <c r="EV303" t="s">
         <v>432</v>
       </c>
       <c r="FR303" t="s">
-        <v>1575</v>
-      </c>
-      <c r="GZ303" t="s">
-        <v>277</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="304" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B304">
         <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D304" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="CH304" t="s">
-        <v>323</v>
-      </c>
-      <c r="CW304" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN304" t="s">
-        <v>623</v>
+        <v>795</v>
       </c>
       <c r="EV304" t="s">
         <v>432</v>
       </c>
+      <c r="FR304" t="s">
+        <v>1575</v>
+      </c>
       <c r="GZ304" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D305" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="CH305" t="s">
-        <v>795</v>
+        <v>323</v>
       </c>
       <c r="CW305" t="s">
-        <v>606</v>
+        <v>351</v>
       </c>
       <c r="DN305" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="EV305" t="s">
         <v>432</v>
       </c>
-      <c r="FR305" t="s">
-        <v>1170</v>
-      </c>
-      <c r="IV305" t="s">
-        <v>1582</v>
+      <c r="GZ305" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="306" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B306">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D306" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="CH306" t="s">
-        <v>323</v>
+        <v>795</v>
+      </c>
+      <c r="CW306" t="s">
+        <v>606</v>
+      </c>
+      <c r="DN306" t="s">
+        <v>865</v>
       </c>
       <c r="EV306" t="s">
         <v>432</v>
       </c>
+      <c r="FR306" t="s">
+        <v>1170</v>
+      </c>
+      <c r="IV306" t="s">
+        <v>1582</v>
+      </c>
     </row>
     <row r="307" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D307" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="CH307" t="s">
         <v>323</v>
@@ -17491,16 +17485,16 @@
     </row>
     <row r="308" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D308" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="CH308" t="s">
         <v>323</v>
@@ -17511,276 +17505,261 @@
     </row>
     <row r="309" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D309" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="CH309" t="s">
-        <v>350</v>
-      </c>
-      <c r="CX309" t="s">
-        <v>614</v>
-      </c>
-      <c r="CZ309" t="s">
-        <v>495</v>
-      </c>
-      <c r="DN309" t="s">
-        <v>623</v>
-      </c>
-      <c r="FR309" t="s">
-        <v>1595</v>
-      </c>
-      <c r="GZ309" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC309" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD309" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG309" t="s">
-        <v>1596</v>
-      </c>
-      <c r="HH309" t="s">
-        <v>1597</v>
-      </c>
-      <c r="HN309" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ309" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX309" t="s">
-        <v>582</v>
-      </c>
-      <c r="IC309" t="s">
-        <v>1598</v>
+        <v>323</v>
+      </c>
+      <c r="EV309" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="310" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="D310" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="CH310" t="s">
-        <v>323</v>
-      </c>
-      <c r="CW310" t="s">
+        <v>350</v>
+      </c>
+      <c r="CX310" t="s">
         <v>614</v>
       </c>
-      <c r="CX310" t="s">
+      <c r="CZ310" t="s">
         <v>495</v>
       </c>
-      <c r="CZ310" t="s">
-        <v>351</v>
-      </c>
-      <c r="GD310" t="s">
-        <v>563</v>
+      <c r="DN310" t="s">
+        <v>623</v>
+      </c>
+      <c r="FR310" t="s">
+        <v>1595</v>
       </c>
       <c r="GZ310" t="s">
         <v>277</v>
       </c>
       <c r="HC310" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD310" t="s">
         <v>279</v>
       </c>
       <c r="HG310" t="s">
-        <v>1602</v>
+        <v>1596</v>
+      </c>
+      <c r="HH310" t="s">
+        <v>1597</v>
       </c>
       <c r="HN310" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="HQ310" t="s">
         <v>282</v>
       </c>
       <c r="HX310" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="IC310" t="s">
-        <v>504</v>
-      </c>
-      <c r="IZ310" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="311" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D311" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="CH311" t="s">
-        <v>168</v>
-      </c>
-      <c r="EV311" t="s">
-        <v>432</v>
+        <v>323</v>
+      </c>
+      <c r="CW311" t="s">
+        <v>614</v>
+      </c>
+      <c r="CX311" t="s">
+        <v>495</v>
+      </c>
+      <c r="CZ311" t="s">
+        <v>351</v>
+      </c>
+      <c r="GD311" t="s">
+        <v>563</v>
+      </c>
+      <c r="GZ311" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC311" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD311" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG311" t="s">
+        <v>1602</v>
+      </c>
+      <c r="HN311" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ311" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX311" t="s">
+        <v>504</v>
+      </c>
+      <c r="IC311" t="s">
+        <v>504</v>
+      </c>
+      <c r="IZ311" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="312" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C312" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D312" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M312" t="s">
-        <v>946</v>
-      </c>
-      <c r="AS312" t="s">
-        <v>635</v>
+        <v>1606</v>
       </c>
       <c r="CH312" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW312" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN312" t="s">
-        <v>513</v>
+        <v>168</v>
       </c>
       <c r="EV312" t="s">
         <v>432</v>
       </c>
-      <c r="FR312" t="s">
-        <v>1610</v>
-      </c>
-      <c r="GP312" t="s">
-        <v>948</v>
-      </c>
     </row>
     <row r="313" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D313" t="s">
-        <v>1613</v>
+        <v>1609</v>
+      </c>
+      <c r="M313" t="s">
+        <v>946</v>
+      </c>
+      <c r="AS313" t="s">
+        <v>635</v>
       </c>
       <c r="CH313" t="s">
-        <v>350</v>
+        <v>795</v>
+      </c>
+      <c r="CW313" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN313" t="s">
+        <v>513</v>
       </c>
       <c r="EV313" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ313" t="s">
-        <v>277</v>
+        <v>432</v>
+      </c>
+      <c r="FR313" t="s">
+        <v>1610</v>
+      </c>
+      <c r="GP313" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="314" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B314">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D314" t="s">
-        <v>1616</v>
-      </c>
-      <c r="AA314" t="s">
-        <v>432</v>
+        <v>1613</v>
       </c>
       <c r="CH314" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW314" t="s">
-        <v>351</v>
-      </c>
-      <c r="DA314" t="s">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="EV314" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR314" t="s">
-        <v>1617</v>
+        <v>282</v>
+      </c>
+      <c r="GZ314" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="315" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B315">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C315" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D315" t="s">
-        <v>974</v>
+        <v>1616</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>432</v>
       </c>
       <c r="CH315" t="s">
         <v>795</v>
       </c>
       <c r="CW315" t="s">
-        <v>614</v>
-      </c>
-      <c r="DN315" t="s">
-        <v>755</v>
+        <v>351</v>
+      </c>
+      <c r="DA315" t="s">
+        <v>495</v>
       </c>
       <c r="EV315" t="s">
         <v>432</v>
       </c>
       <c r="FR315" t="s">
-        <v>975</v>
-      </c>
-      <c r="GZ315" t="s">
-        <v>277</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="316" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B316">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D316" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G316" t="s">
-        <v>432</v>
+        <v>974</v>
       </c>
       <c r="CH316" t="s">
         <v>795</v>
@@ -17788,6 +17767,9 @@
       <c r="CW316" t="s">
         <v>614</v>
       </c>
+      <c r="DN316" t="s">
+        <v>755</v>
+      </c>
       <c r="EV316" t="s">
         <v>432</v>
       </c>
@@ -17800,16 +17782,19 @@
     </row>
     <row r="317" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D317" t="s">
-        <v>1625</v>
+        <v>1622</v>
+      </c>
+      <c r="G317" t="s">
+        <v>432</v>
       </c>
       <c r="CH317" t="s">
         <v>795</v>
@@ -17817,14 +17802,11 @@
       <c r="CW317" t="s">
         <v>614</v>
       </c>
-      <c r="DN317" t="s">
-        <v>755</v>
-      </c>
       <c r="EV317" t="s">
         <v>432</v>
       </c>
-      <c r="GD317" t="s">
-        <v>685</v>
+      <c r="FR317" t="s">
+        <v>975</v>
       </c>
       <c r="GZ317" t="s">
         <v>277</v>
@@ -17832,16 +17814,16 @@
     </row>
     <row r="318" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B318">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D318" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="CH318" t="s">
         <v>795</v>
@@ -17855,8 +17837,8 @@
       <c r="EV318" t="s">
         <v>432</v>
       </c>
-      <c r="FR318" t="s">
-        <v>975</v>
+      <c r="GD318" t="s">
+        <v>685</v>
       </c>
       <c r="GZ318" t="s">
         <v>277</v>
@@ -17864,164 +17846,196 @@
     </row>
     <row r="319" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C319" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D319" t="s">
-        <v>1630</v>
-      </c>
-      <c r="AS319" t="s">
-        <v>362</v>
+        <v>1626</v>
       </c>
       <c r="CH319" t="s">
-        <v>323</v>
+        <v>795</v>
       </c>
       <c r="CW319" t="s">
-        <v>351</v>
+        <v>614</v>
+      </c>
+      <c r="DN319" t="s">
+        <v>755</v>
+      </c>
+      <c r="EV319" t="s">
+        <v>432</v>
+      </c>
+      <c r="FR319" t="s">
+        <v>975</v>
       </c>
       <c r="GZ319" t="s">
         <v>277</v>
       </c>
-      <c r="HC319" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD319" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG319" t="s">
-        <v>1631</v>
-      </c>
-      <c r="HN319" t="s">
-        <v>309</v>
-      </c>
-      <c r="HX319" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC319" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="320" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="D320" t="s">
-        <v>1634</v>
+        <v>1630</v>
+      </c>
+      <c r="AS320" t="s">
+        <v>362</v>
       </c>
       <c r="CH320" t="s">
-        <v>795</v>
+        <v>323</v>
       </c>
       <c r="CW320" t="s">
         <v>351</v>
       </c>
-      <c r="DN320" t="s">
-        <v>815</v>
-      </c>
-      <c r="EV320" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR320" t="s">
-        <v>1635</v>
+      <c r="GZ320" t="s">
+        <v>277</v>
       </c>
       <c r="HC320" t="s">
-        <v>892</v>
+        <v>278</v>
       </c>
       <c r="HD320" t="s">
-        <v>1636</v>
+        <v>279</v>
       </c>
       <c r="HG320" t="s">
-        <v>1637</v>
-      </c>
-      <c r="HH320" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="HN320" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ320" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="321" spans="1:174" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="HX320" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC320" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="321" spans="1:225" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B321">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D321" t="s">
-        <v>1009</v>
+        <v>1634</v>
       </c>
       <c r="CH321" t="s">
-        <v>350</v>
+        <v>795</v>
       </c>
       <c r="CW321" t="s">
         <v>351</v>
       </c>
+      <c r="DN321" t="s">
+        <v>815</v>
+      </c>
       <c r="EV321" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="322" spans="1:174" x14ac:dyDescent="0.2">
+      <c r="FR321" t="s">
+        <v>1635</v>
+      </c>
+      <c r="HC321" t="s">
+        <v>892</v>
+      </c>
+      <c r="HD321" t="s">
+        <v>1636</v>
+      </c>
+      <c r="HG321" t="s">
+        <v>1637</v>
+      </c>
+      <c r="HH321" t="s">
+        <v>1638</v>
+      </c>
+      <c r="HN321" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ321" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="322" spans="1:225" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D322" t="s">
-        <v>1641</v>
-      </c>
-      <c r="AW322" t="s">
-        <v>635</v>
+        <v>1009</v>
       </c>
       <c r="CH322" t="s">
         <v>350</v>
       </c>
-      <c r="DN322" t="s">
+      <c r="CW322" t="s">
+        <v>351</v>
+      </c>
+      <c r="EV322" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="323" spans="1:225" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AW323" t="s">
+        <v>635</v>
+      </c>
+      <c r="CH323" t="s">
+        <v>350</v>
+      </c>
+      <c r="DN323" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="323" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="324" spans="1:225" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>1643</v>
       </c>
-      <c r="B323">
+      <c r="B324">
         <v>8</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C324" t="s">
         <v>1644</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D324" t="s">
         <v>1645</v>
       </c>
-      <c r="CH323" t="s">
+      <c r="CH324" t="s">
         <v>795</v>
       </c>
-      <c r="CW323" t="s">
+      <c r="CW324" t="s">
         <v>614</v>
       </c>
-      <c r="EV323" t="s">
+      <c r="EV324" t="s">
         <v>432</v>
       </c>
-      <c r="FR323" t="s">
+      <c r="FR324" t="s">
         <v>1376</v>
       </c>
     </row>

--- a/possible_street_pairs_cleaned.xlsx
+++ b/possible_street_pairs_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krschreyer/R Projects/data205/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038B3E5-90B2-D445-9FA8-18F922D1C14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D03C667-FBD9-CD46-95C9-E150474AB0BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="3120" windowWidth="27580" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1648">
   <si>
     <t>name.x</t>
   </si>
@@ -5350,10 +5350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JM324"/>
+  <dimension ref="A1:JM323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13759,7 +13759,7 @@
         <v>1169</v>
       </c>
       <c r="D200" t="s">
-        <v>1168</v>
+        <v>1647</v>
       </c>
       <c r="CH200" t="s">
         <v>795</v>
@@ -13779,24 +13779,66 @@
     </row>
     <row r="201" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1168</v>
+        <v>1171</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1172</v>
       </c>
       <c r="D201" t="s">
-        <v>1647</v>
+        <v>1173</v>
+      </c>
+      <c r="CH201" t="s">
+        <v>276</v>
+      </c>
+      <c r="HC201" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD201" t="s">
+        <v>984</v>
+      </c>
+      <c r="HG201" t="s">
+        <v>1174</v>
+      </c>
+      <c r="HN201" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ201" t="s">
+        <v>282</v>
+      </c>
+      <c r="HR201" t="s">
+        <v>282</v>
+      </c>
+      <c r="HS201" t="s">
+        <v>1175</v>
+      </c>
+      <c r="HT201" t="s">
+        <v>1176</v>
+      </c>
+      <c r="HV201" t="s">
+        <v>1177</v>
+      </c>
+      <c r="HX201" t="s">
+        <v>1178</v>
+      </c>
+      <c r="IC201" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="202" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="D202" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="CH202" t="s">
         <v>276</v>
@@ -13805,86 +13847,53 @@
         <v>278</v>
       </c>
       <c r="HD202" t="s">
-        <v>984</v>
+        <v>279</v>
       </c>
       <c r="HG202" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="HN202" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="HQ202" t="s">
         <v>282</v>
       </c>
-      <c r="HR202" t="s">
-        <v>282</v>
-      </c>
-      <c r="HS202" t="s">
-        <v>1175</v>
-      </c>
-      <c r="HT202" t="s">
-        <v>1176</v>
-      </c>
-      <c r="HV202" t="s">
-        <v>1177</v>
-      </c>
       <c r="HX202" t="s">
-        <v>1178</v>
+        <v>504</v>
       </c>
       <c r="IC202" t="s">
-        <v>1178</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="D203" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="CH203" t="s">
         <v>276</v>
       </c>
-      <c r="HC203" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD203" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG203" t="s">
-        <v>1182</v>
-      </c>
-      <c r="HN203" t="s">
-        <v>288</v>
-      </c>
-      <c r="HQ203" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX203" t="s">
-        <v>504</v>
-      </c>
-      <c r="IC203" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="204" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D204" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="CH204" t="s">
         <v>276</v>
@@ -13892,126 +13901,141 @@
     </row>
     <row r="205" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D205" t="s">
-        <v>1188</v>
+        <v>1191</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AW205" t="s">
+        <v>1192</v>
       </c>
       <c r="CH205" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="DX205" t="s">
+        <v>571</v>
+      </c>
+      <c r="EV205" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ205" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="D206" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AU206" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AW206" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="CH206" t="s">
-        <v>323</v>
-      </c>
-      <c r="DX206" t="s">
-        <v>571</v>
-      </c>
-      <c r="EV206" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ206" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="HC206" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD206" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG206" t="s">
+        <v>1196</v>
+      </c>
+      <c r="HN206" t="s">
+        <v>288</v>
+      </c>
+      <c r="HX206" t="s">
+        <v>295</v>
+      </c>
+      <c r="IC206" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="D207" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="CH207" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC207" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD207" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG207" t="s">
-        <v>1196</v>
-      </c>
-      <c r="HN207" t="s">
-        <v>288</v>
-      </c>
-      <c r="HX207" t="s">
-        <v>295</v>
-      </c>
-      <c r="IC207" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D208" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="CH208" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="DN208" t="s">
+        <v>430</v>
+      </c>
+      <c r="EV208" t="s">
+        <v>282</v>
+      </c>
+      <c r="GZ208" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D209" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="CH209" t="s">
         <v>276</v>
       </c>
+      <c r="CW209" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH209" t="s">
+        <v>432</v>
+      </c>
       <c r="DN209" t="s">
         <v>430</v>
       </c>
-      <c r="EV209" t="s">
-        <v>282</v>
+      <c r="GD209" t="s">
+        <v>563</v>
       </c>
       <c r="GZ209" t="s">
         <v>277</v>
@@ -14019,199 +14043,208 @@
     </row>
     <row r="210" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D210" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="CH210" t="s">
-        <v>276</v>
-      </c>
-      <c r="CW210" t="s">
-        <v>351</v>
-      </c>
-      <c r="DH210" t="s">
+        <v>323</v>
+      </c>
+      <c r="EV210" t="s">
         <v>432</v>
       </c>
-      <c r="DN210" t="s">
-        <v>430</v>
-      </c>
-      <c r="GD210" t="s">
-        <v>563</v>
-      </c>
-      <c r="GZ210" t="s">
-        <v>277</v>
+      <c r="HC210" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD210" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG210" t="s">
+        <v>1209</v>
+      </c>
+      <c r="HN210" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ210" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="D211" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="CH211" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV211" t="s">
-        <v>432</v>
-      </c>
-      <c r="HC211" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD211" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG211" t="s">
-        <v>1209</v>
-      </c>
-      <c r="HN211" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ211" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D212" t="s">
-        <v>1210</v>
+        <v>1214</v>
+      </c>
+      <c r="I212" t="s">
+        <v>282</v>
       </c>
       <c r="CH212" t="s">
-        <v>276</v>
+        <v>183</v>
+      </c>
+      <c r="HC212" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD212" t="s">
+        <v>424</v>
+      </c>
+      <c r="HQ212" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="213" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="D213" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I213" t="s">
-        <v>282</v>
+        <v>1217</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>432</v>
       </c>
       <c r="CH213" t="s">
-        <v>183</v>
+        <v>323</v>
+      </c>
+      <c r="DA213" t="s">
+        <v>495</v>
       </c>
       <c r="HC213" t="s">
         <v>278</v>
       </c>
       <c r="HD213" t="s">
-        <v>424</v>
-      </c>
-      <c r="HQ213" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="HG213" t="s">
+        <v>1218</v>
+      </c>
+      <c r="HN213" t="s">
+        <v>294</v>
+      </c>
+      <c r="HX213" t="s">
+        <v>300</v>
+      </c>
+      <c r="IC213" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="D214" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AA214" t="s">
-        <v>432</v>
+        <v>1221</v>
       </c>
       <c r="CH214" t="s">
         <v>323</v>
       </c>
-      <c r="DA214" t="s">
-        <v>495</v>
-      </c>
-      <c r="HC214" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD214" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG214" t="s">
-        <v>1218</v>
-      </c>
-      <c r="HN214" t="s">
-        <v>294</v>
-      </c>
-      <c r="HX214" t="s">
-        <v>300</v>
-      </c>
-      <c r="IC214" t="s">
-        <v>300</v>
+      <c r="EV214" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ214" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="D215" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="CH215" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV215" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="GZ215" t="s">
         <v>277</v>
       </c>
+      <c r="HC215" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD215" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG215" t="s">
+        <v>1225</v>
+      </c>
+      <c r="HN215" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ215" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX215" t="s">
+        <v>573</v>
+      </c>
+      <c r="IC215" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="216" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="D216" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="CH216" t="s">
-        <v>276</v>
-      </c>
-      <c r="GZ216" t="s">
-        <v>277</v>
+        <v>350</v>
+      </c>
+      <c r="EV216" t="s">
+        <v>432</v>
       </c>
       <c r="HC216" t="s">
         <v>278</v>
@@ -14220,39 +14253,39 @@
         <v>279</v>
       </c>
       <c r="HG216" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="HN216" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="HQ216" t="s">
         <v>282</v>
       </c>
       <c r="HX216" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="IC216" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D217" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="CH217" t="s">
-        <v>350</v>
-      </c>
-      <c r="EV217" t="s">
-        <v>432</v>
+        <v>323</v>
+      </c>
+      <c r="CW217" t="s">
+        <v>351</v>
       </c>
       <c r="HC217" t="s">
         <v>278</v>
@@ -14261,40 +14294,40 @@
         <v>279</v>
       </c>
       <c r="HG217" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="HN217" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="HQ217" t="s">
         <v>282</v>
       </c>
       <c r="HX217" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="IC217" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="D218" t="s">
-        <v>1232</v>
+        <v>1236</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>432</v>
       </c>
       <c r="CH218" t="s">
         <v>323</v>
       </c>
-      <c r="CW218" t="s">
-        <v>351</v>
-      </c>
       <c r="HC218" t="s">
         <v>278</v>
       </c>
@@ -14302,33 +14335,33 @@
         <v>279</v>
       </c>
       <c r="HG218" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="HN218" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="HQ218" t="s">
         <v>282</v>
       </c>
       <c r="HX218" t="s">
-        <v>504</v>
+        <v>364</v>
       </c>
       <c r="IC218" t="s">
-        <v>504</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="D219" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="AA219" t="s">
         <v>432</v>
@@ -14336,6 +14369,9 @@
       <c r="CH219" t="s">
         <v>323</v>
       </c>
+      <c r="EV219" t="s">
+        <v>432</v>
+      </c>
       <c r="HC219" t="s">
         <v>278</v>
       </c>
@@ -14343,13 +14379,13 @@
         <v>279</v>
       </c>
       <c r="HG219" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="HN219" t="s">
-        <v>288</v>
+        <v>637</v>
       </c>
       <c r="HQ219" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="HX219" t="s">
         <v>364</v>
@@ -14360,95 +14396,89 @@
     </row>
     <row r="220" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="D220" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>432</v>
+        <v>1244</v>
       </c>
       <c r="CH220" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV220" t="s">
-        <v>432</v>
+        <v>183</v>
       </c>
       <c r="HC220" t="s">
         <v>278</v>
       </c>
       <c r="HD220" t="s">
         <v>279</v>
-      </c>
-      <c r="HG220" t="s">
-        <v>1241</v>
-      </c>
-      <c r="HN220" t="s">
-        <v>637</v>
-      </c>
-      <c r="HQ220" t="s">
-        <v>432</v>
-      </c>
-      <c r="HX220" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC220" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="D221" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="CH221" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="HC221" t="s">
         <v>278</v>
       </c>
       <c r="HD221" t="s">
-        <v>279</v>
+        <v>424</v>
+      </c>
+      <c r="HG221" t="s">
+        <v>1248</v>
+      </c>
+      <c r="HN221" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ221" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX221" t="s">
+        <v>426</v>
+      </c>
+      <c r="IC221" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="222" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="D222" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="CH222" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="HC222" t="s">
         <v>278</v>
       </c>
       <c r="HD222" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="HG222" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="HN222" t="s">
         <v>309</v>
@@ -14457,27 +14487,39 @@
         <v>282</v>
       </c>
       <c r="HX222" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="IC222" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="D223" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="CH223" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW223" t="s">
+        <v>606</v>
+      </c>
+      <c r="CX223" t="s">
+        <v>351</v>
+      </c>
+      <c r="CZ223" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN223" t="s">
+        <v>623</v>
       </c>
       <c r="HC223" t="s">
         <v>278</v>
@@ -14486,272 +14528,266 @@
         <v>279</v>
       </c>
       <c r="HG223" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="HN223" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ223" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="HX223" t="s">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="IC223" t="s">
-        <v>358</v>
+        <v>504</v>
+      </c>
+      <c r="IW223" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="D224" t="s">
-        <v>1255</v>
+        <v>1259</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>432</v>
+      </c>
+      <c r="BS224" t="s">
+        <v>432</v>
       </c>
       <c r="CH224" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW224" t="s">
-        <v>606</v>
-      </c>
-      <c r="CX224" t="s">
-        <v>351</v>
-      </c>
-      <c r="CZ224" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN224" t="s">
-        <v>623</v>
-      </c>
-      <c r="HC224" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD224" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG224" t="s">
-        <v>1256</v>
-      </c>
-      <c r="HN224" t="s">
-        <v>325</v>
-      </c>
-      <c r="HX224" t="s">
-        <v>487</v>
-      </c>
-      <c r="IC224" t="s">
-        <v>504</v>
-      </c>
-      <c r="IW224" t="s">
-        <v>615</v>
+        <v>276</v>
+      </c>
+      <c r="EV224" t="s">
+        <v>282</v>
+      </c>
+      <c r="GZ224" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="225" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D225" t="s">
-        <v>1259</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>432</v>
-      </c>
-      <c r="BS225" t="s">
-        <v>432</v>
+        <v>1262</v>
       </c>
       <c r="CH225" t="s">
         <v>276</v>
       </c>
-      <c r="EV225" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ225" t="s">
-        <v>519</v>
+      <c r="GD225" t="s">
+        <v>1263</v>
+      </c>
+      <c r="HC225" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD225" t="s">
+        <v>424</v>
+      </c>
+      <c r="HG225" t="s">
+        <v>1264</v>
+      </c>
+      <c r="HN225" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ225" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX225" t="s">
+        <v>433</v>
+      </c>
+      <c r="IC225" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="D226" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="CH226" t="s">
         <v>276</v>
       </c>
-      <c r="GD226" t="s">
-        <v>1263</v>
+      <c r="DN226" t="s">
+        <v>430</v>
+      </c>
+      <c r="EV226" t="s">
+        <v>432</v>
       </c>
       <c r="HC226" t="s">
         <v>278</v>
       </c>
       <c r="HD226" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="HG226" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="HN226" t="s">
         <v>309</v>
       </c>
       <c r="HQ226" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="HX226" t="s">
-        <v>433</v>
+        <v>582</v>
       </c>
       <c r="IC226" t="s">
-        <v>433</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="D227" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="CH227" t="s">
-        <v>276</v>
-      </c>
-      <c r="DN227" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="EV227" t="s">
         <v>432</v>
       </c>
-      <c r="HC227" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD227" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG227" t="s">
-        <v>1268</v>
-      </c>
-      <c r="HN227" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ227" t="s">
-        <v>432</v>
-      </c>
-      <c r="HX227" t="s">
-        <v>582</v>
-      </c>
-      <c r="IC227" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="228" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D228" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="CH228" t="s">
         <v>323</v>
       </c>
-      <c r="EV228" t="s">
-        <v>432</v>
+      <c r="HC228" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD228" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG228" t="s">
+        <v>1275</v>
+      </c>
+      <c r="HN228" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ228" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="D229" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="CH229" t="s">
-        <v>323</v>
-      </c>
-      <c r="HC229" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD229" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG229" t="s">
-        <v>1275</v>
-      </c>
-      <c r="HN229" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ229" t="s">
-        <v>282</v>
+        <v>350</v>
+      </c>
+      <c r="DN229" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="230" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B230">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D230" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="CH230" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN230" t="s">
-        <v>513</v>
+        <v>323</v>
+      </c>
+      <c r="HC230" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD230" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG230" t="s">
+        <v>1282</v>
+      </c>
+      <c r="HN230" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ230" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX230" t="s">
+        <v>315</v>
+      </c>
+      <c r="IC230" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="D231" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="CH231" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="CW231" t="s">
+        <v>351</v>
+      </c>
+      <c r="GZ231" t="s">
+        <v>277</v>
       </c>
       <c r="HC231" t="s">
         <v>278</v>
@@ -14760,39 +14796,39 @@
         <v>279</v>
       </c>
       <c r="HG231" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="HN231" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ231" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="HX231" t="s">
-        <v>315</v>
+        <v>438</v>
       </c>
       <c r="IC231" t="s">
-        <v>315</v>
+        <v>438</v>
       </c>
     </row>
     <row r="232" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="D232" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="CH232" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="CW232" t="s">
-        <v>351</v>
+        <v>495</v>
+      </c>
+      <c r="EV232" t="s">
+        <v>432</v>
       </c>
       <c r="GZ232" t="s">
         <v>277</v>
@@ -14804,11 +14840,14 @@
         <v>279</v>
       </c>
       <c r="HG232" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="HN232" t="s">
         <v>309</v>
       </c>
+      <c r="HQ232" t="s">
+        <v>432</v>
+      </c>
       <c r="HX232" t="s">
         <v>438</v>
       </c>
@@ -14818,22 +14857,25 @@
     </row>
     <row r="233" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="D233" t="s">
-        <v>1289</v>
+        <v>1293</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>571</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>362</v>
       </c>
       <c r="CH233" t="s">
-        <v>323</v>
-      </c>
-      <c r="CW233" t="s">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="EV233" t="s">
         <v>432</v>
@@ -14848,49 +14890,34 @@
         <v>279</v>
       </c>
       <c r="HG233" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="HN233" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ233" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="HX233" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
       <c r="IC233" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="D234" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>571</v>
-      </c>
-      <c r="AS234" t="s">
-        <v>362</v>
+        <v>1297</v>
       </c>
       <c r="CH234" t="s">
         <v>350</v>
       </c>
-      <c r="EV234" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ234" t="s">
-        <v>277</v>
-      </c>
       <c r="HC234" t="s">
         <v>278</v>
       </c>
@@ -14898,33 +14925,39 @@
         <v>279</v>
       </c>
       <c r="HG234" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="HN234" t="s">
         <v>294</v>
       </c>
+      <c r="HQ234" t="s">
+        <v>282</v>
+      </c>
       <c r="HX234" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="IC234" t="s">
-        <v>358</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="D235" t="s">
-        <v>1297</v>
+        <v>1301</v>
+      </c>
+      <c r="O235" t="s">
+        <v>572</v>
       </c>
       <c r="CH235" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="HC235" t="s">
         <v>278</v>
@@ -14933,39 +14966,36 @@
         <v>279</v>
       </c>
       <c r="HG235" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="HN235" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="HQ235" t="s">
         <v>282</v>
-      </c>
-      <c r="HX235" t="s">
-        <v>509</v>
-      </c>
-      <c r="IC235" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="236" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="D236" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O236" t="s">
-        <v>572</v>
+        <v>1305</v>
       </c>
       <c r="CH236" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="DN236" t="s">
+        <v>623</v>
+      </c>
+      <c r="EV236" t="s">
+        <v>432</v>
       </c>
       <c r="HC236" t="s">
         <v>278</v>
@@ -14974,10 +15004,10 @@
         <v>279</v>
       </c>
       <c r="HG236" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="HN236" t="s">
-        <v>325</v>
+        <v>559</v>
       </c>
       <c r="HQ236" t="s">
         <v>282</v>
@@ -14985,26 +15015,23 @@
     </row>
     <row r="237" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="D237" t="s">
-        <v>1305</v>
+        <v>1309</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1310</v>
       </c>
       <c r="CH237" t="s">
         <v>323</v>
       </c>
-      <c r="DN237" t="s">
-        <v>623</v>
-      </c>
-      <c r="EV237" t="s">
-        <v>432</v>
-      </c>
       <c r="HC237" t="s">
         <v>278</v>
       </c>
@@ -15012,165 +15039,165 @@
         <v>279</v>
       </c>
       <c r="HG237" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="HN237" t="s">
-        <v>559</v>
-      </c>
-      <c r="HQ237" t="s">
-        <v>282</v>
+        <v>309</v>
+      </c>
+      <c r="HX237" t="s">
+        <v>504</v>
+      </c>
+      <c r="IC237" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="D238" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="CH238" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="EV238" t="s">
+        <v>432</v>
+      </c>
+      <c r="FR238" t="s">
+        <v>641</v>
       </c>
       <c r="HC238" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD238" t="s">
         <v>279</v>
       </c>
       <c r="HG238" t="s">
-        <v>1311</v>
+        <v>1315</v>
+      </c>
+      <c r="HH238" t="s">
+        <v>644</v>
       </c>
       <c r="HN238" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="HX238" t="s">
-        <v>504</v>
+        <v>289</v>
       </c>
       <c r="IC238" t="s">
-        <v>504</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="D239" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="CH239" t="s">
         <v>350</v>
       </c>
-      <c r="EV239" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR239" t="s">
-        <v>641</v>
-      </c>
-      <c r="HC239" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD239" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG239" t="s">
-        <v>1315</v>
-      </c>
-      <c r="HH239" t="s">
-        <v>644</v>
-      </c>
-      <c r="HN239" t="s">
-        <v>294</v>
-      </c>
-      <c r="HX239" t="s">
-        <v>289</v>
-      </c>
-      <c r="IC239" t="s">
-        <v>289</v>
+      <c r="CW239" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN239" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B240">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D240" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="CH240" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="CW240" t="s">
         <v>351</v>
       </c>
-      <c r="DN240" t="s">
-        <v>623</v>
+      <c r="EV240" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ240" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D241" t="s">
-        <v>1321</v>
+        <v>1324</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>635</v>
       </c>
       <c r="CH241" t="s">
         <v>323</v>
       </c>
-      <c r="CW241" t="s">
-        <v>351</v>
-      </c>
-      <c r="EV241" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ241" t="s">
-        <v>277</v>
+      <c r="HC241" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD241" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG241" t="s">
+        <v>1325</v>
+      </c>
+      <c r="HN241" t="s">
+        <v>559</v>
+      </c>
+      <c r="HQ241" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="242" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="D242" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AW242" t="s">
-        <v>635</v>
+        <v>1328</v>
       </c>
       <c r="CH242" t="s">
         <v>323</v>
       </c>
+      <c r="EV242" t="s">
+        <v>432</v>
+      </c>
       <c r="HC242" t="s">
         <v>278</v>
       </c>
@@ -15178,71 +15205,74 @@
         <v>279</v>
       </c>
       <c r="HG242" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="HN242" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="HQ242" t="s">
         <v>282</v>
+      </c>
+      <c r="HX242" t="s">
+        <v>546</v>
+      </c>
+      <c r="IC242" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="D243" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="CH243" t="s">
         <v>323</v>
       </c>
-      <c r="EV243" t="s">
+      <c r="HC243" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD243" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG243" t="s">
+        <v>1333</v>
+      </c>
+      <c r="HN243" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ243" t="s">
         <v>432</v>
       </c>
-      <c r="HC243" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD243" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG243" t="s">
-        <v>1329</v>
-      </c>
-      <c r="HN243" t="s">
-        <v>637</v>
-      </c>
-      <c r="HQ243" t="s">
-        <v>282</v>
-      </c>
       <c r="HX243" t="s">
-        <v>546</v>
+        <v>346</v>
       </c>
       <c r="IC243" t="s">
-        <v>546</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="D244" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="CH244" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="HC244" t="s">
         <v>278</v>
@@ -15251,13 +15281,13 @@
         <v>279</v>
       </c>
       <c r="HG244" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="HN244" t="s">
         <v>294</v>
       </c>
       <c r="HQ244" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="HX244" t="s">
         <v>346</v>
@@ -15268,16 +15298,16 @@
     </row>
     <row r="245" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="D245" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="CH245" t="s">
         <v>276</v>
@@ -15289,36 +15319,36 @@
         <v>279</v>
       </c>
       <c r="HG245" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="HN245" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="HQ245" t="s">
         <v>282</v>
       </c>
       <c r="HX245" t="s">
-        <v>346</v>
+        <v>1342</v>
       </c>
       <c r="IC245" t="s">
-        <v>346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="246" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="D246" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="CH246" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="HC246" t="s">
         <v>278</v>
@@ -15327,37 +15357,43 @@
         <v>279</v>
       </c>
       <c r="HG246" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="HN246" t="s">
         <v>325</v>
       </c>
       <c r="HQ246" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="HX246" t="s">
-        <v>1342</v>
+        <v>346</v>
       </c>
       <c r="IC246" t="s">
-        <v>1342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="D247" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="CH247" t="s">
         <v>323</v>
       </c>
+      <c r="DN247" t="s">
+        <v>623</v>
+      </c>
+      <c r="EV247" t="s">
+        <v>432</v>
+      </c>
       <c r="HC247" t="s">
         <v>278</v>
       </c>
@@ -15365,7 +15401,7 @@
         <v>279</v>
       </c>
       <c r="HG247" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="HN247" t="s">
         <v>325</v>
@@ -15373,294 +15409,288 @@
       <c r="HQ247" t="s">
         <v>432</v>
       </c>
-      <c r="HX247" t="s">
-        <v>346</v>
-      </c>
-      <c r="IC247" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="248" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="D248" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="CH248" t="s">
         <v>323</v>
       </c>
       <c r="DN248" t="s">
-        <v>623</v>
-      </c>
-      <c r="EV248" t="s">
-        <v>432</v>
-      </c>
-      <c r="HC248" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD248" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG248" t="s">
-        <v>1350</v>
-      </c>
-      <c r="HN248" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ248" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="249" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D249" t="s">
-        <v>1353</v>
+        <v>1356</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>362</v>
       </c>
       <c r="CH249" t="s">
         <v>323</v>
       </c>
-      <c r="DN249" t="s">
-        <v>430</v>
+      <c r="HC249" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD249" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG249" t="s">
+        <v>1357</v>
+      </c>
+      <c r="HN249" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ249" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX249" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC249" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="250" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="D250" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AS250" t="s">
-        <v>362</v>
+        <v>1360</v>
       </c>
       <c r="CH250" t="s">
-        <v>323</v>
-      </c>
-      <c r="HC250" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD250" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG250" t="s">
-        <v>1357</v>
-      </c>
-      <c r="HN250" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ250" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX250" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC250" t="s">
-        <v>364</v>
+        <v>814</v>
+      </c>
+      <c r="CW250" t="s">
+        <v>351</v>
+      </c>
+      <c r="EV250" t="s">
+        <v>432</v>
+      </c>
+      <c r="GN250" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="251" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="D251" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="CH251" t="s">
-        <v>814</v>
-      </c>
-      <c r="CW251" t="s">
-        <v>351</v>
-      </c>
-      <c r="EV251" t="s">
-        <v>432</v>
-      </c>
-      <c r="GN251" t="s">
-        <v>1361</v>
+        <v>323</v>
+      </c>
+      <c r="GZ251" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC251" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD251" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG251" t="s">
+        <v>1365</v>
+      </c>
+      <c r="HN251" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ251" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX251" t="s">
+        <v>1366</v>
+      </c>
+      <c r="HY251" t="s">
+        <v>1366</v>
+      </c>
+      <c r="IC251" t="s">
+        <v>770</v>
+      </c>
+      <c r="ID251" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="252" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="B252">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="D252" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="CH252" t="s">
-        <v>323</v>
-      </c>
-      <c r="GZ252" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC252" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD252" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG252" t="s">
-        <v>1365</v>
-      </c>
-      <c r="HN252" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ252" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX252" t="s">
-        <v>1366</v>
-      </c>
-      <c r="HY252" t="s">
-        <v>1366</v>
-      </c>
-      <c r="IC252" t="s">
-        <v>770</v>
-      </c>
-      <c r="ID252" t="s">
-        <v>770</v>
+        <v>276</v>
+      </c>
+      <c r="EV252" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="D253" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="CH253" t="s">
-        <v>276</v>
-      </c>
-      <c r="EV253" t="s">
-        <v>432</v>
+        <v>350</v>
+      </c>
+      <c r="HC253" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD253" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG253" t="s">
+        <v>1372</v>
+      </c>
+      <c r="HN253" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ253" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX253" t="s">
+        <v>770</v>
+      </c>
+      <c r="IC253" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="254" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="D254" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="CH254" t="s">
-        <v>350</v>
-      </c>
-      <c r="HC254" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD254" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG254" t="s">
-        <v>1372</v>
-      </c>
-      <c r="HN254" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ254" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX254" t="s">
-        <v>770</v>
-      </c>
-      <c r="IC254" t="s">
-        <v>770</v>
+        <v>795</v>
+      </c>
+      <c r="CW254" t="s">
+        <v>614</v>
+      </c>
+      <c r="EV254" t="s">
+        <v>432</v>
+      </c>
+      <c r="FR254" t="s">
+        <v>1376</v>
+      </c>
+      <c r="GZ254" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="D255" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="CH255" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW255" t="s">
-        <v>614</v>
+        <v>323</v>
+      </c>
+      <c r="DN255" t="s">
+        <v>513</v>
       </c>
       <c r="EV255" t="s">
         <v>432</v>
       </c>
-      <c r="FR255" t="s">
-        <v>1376</v>
-      </c>
-      <c r="GZ255" t="s">
-        <v>277</v>
+      <c r="HC255" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD255" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG255" t="s">
+        <v>1380</v>
+      </c>
+      <c r="HN255" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ255" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="256" spans="1:238" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="D256" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="CH256" t="s">
         <v>323</v>
       </c>
-      <c r="DN256" t="s">
-        <v>513</v>
-      </c>
       <c r="EV256" t="s">
         <v>432</v>
       </c>
+      <c r="GZ256" t="s">
+        <v>277</v>
+      </c>
       <c r="HC256" t="s">
         <v>278</v>
       </c>
@@ -15668,27 +15698,33 @@
         <v>279</v>
       </c>
       <c r="HG256" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="HN256" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="HQ256" t="s">
         <v>282</v>
+      </c>
+      <c r="HX256" t="s">
+        <v>770</v>
+      </c>
+      <c r="IC256" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="D257" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="CH257" t="s">
         <v>323</v>
@@ -15696,9 +15732,6 @@
       <c r="EV257" t="s">
         <v>432</v>
       </c>
-      <c r="GZ257" t="s">
-        <v>277</v>
-      </c>
       <c r="HC257" t="s">
         <v>278</v>
       </c>
@@ -15706,33 +15739,27 @@
         <v>279</v>
       </c>
       <c r="HG257" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="HN257" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="HQ257" t="s">
         <v>282</v>
-      </c>
-      <c r="HX257" t="s">
-        <v>770</v>
-      </c>
-      <c r="IC257" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="D258" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="CH258" t="s">
         <v>323</v>
@@ -15747,10 +15774,10 @@
         <v>279</v>
       </c>
       <c r="HG258" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="HN258" t="s">
-        <v>294</v>
+        <v>637</v>
       </c>
       <c r="HQ258" t="s">
         <v>282</v>
@@ -15758,23 +15785,20 @@
     </row>
     <row r="259" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="D259" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="CH259" t="s">
         <v>323</v>
       </c>
-      <c r="EV259" t="s">
-        <v>432</v>
-      </c>
       <c r="HC259" t="s">
         <v>278</v>
       </c>
@@ -15782,31 +15806,31 @@
         <v>279</v>
       </c>
       <c r="HG259" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="HN259" t="s">
-        <v>637</v>
-      </c>
-      <c r="HQ259" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="260" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="D260" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="CH260" t="s">
         <v>323</v>
       </c>
+      <c r="GZ260" t="s">
+        <v>277</v>
+      </c>
       <c r="HC260" t="s">
         <v>278</v>
       </c>
@@ -15814,68 +15838,83 @@
         <v>279</v>
       </c>
       <c r="HG260" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="HN260" t="s">
         <v>325</v>
       </c>
+      <c r="HQ260" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="261" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="D261" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="CH261" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW261" t="s">
+        <v>614</v>
+      </c>
+      <c r="DN261" t="s">
+        <v>755</v>
+      </c>
+      <c r="EV261" t="s">
+        <v>432</v>
       </c>
       <c r="GZ261" t="s">
         <v>277</v>
       </c>
       <c r="HC261" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD261" t="s">
         <v>279</v>
       </c>
       <c r="HG261" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="HN261" t="s">
-        <v>325</v>
+        <v>559</v>
       </c>
       <c r="HQ261" t="s">
         <v>282</v>
+      </c>
+      <c r="HX261" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC261" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="262" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="D262" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="CH262" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW262" t="s">
-        <v>614</v>
+        <v>323</v>
       </c>
       <c r="DN262" t="s">
-        <v>755</v>
+        <v>513</v>
       </c>
       <c r="EV262" t="s">
         <v>432</v>
@@ -15884,51 +15923,42 @@
         <v>277</v>
       </c>
       <c r="HC262" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD262" t="s">
         <v>279</v>
       </c>
       <c r="HG262" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="HN262" t="s">
-        <v>559</v>
-      </c>
-      <c r="HQ262" t="s">
-        <v>282</v>
+        <v>637</v>
       </c>
       <c r="HX262" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
       <c r="IC262" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="D263" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="CH263" t="s">
         <v>323</v>
       </c>
       <c r="DN263" t="s">
-        <v>513</v>
-      </c>
-      <c r="EV263" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ263" t="s">
-        <v>277</v>
+        <v>430</v>
       </c>
       <c r="HC263" t="s">
         <v>278</v>
@@ -15937,115 +15967,115 @@
         <v>279</v>
       </c>
       <c r="HG263" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="HN263" t="s">
-        <v>637</v>
-      </c>
-      <c r="HX263" t="s">
-        <v>504</v>
-      </c>
-      <c r="IC263" t="s">
-        <v>504</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="B264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D264" t="s">
-        <v>1411</v>
+        <v>1415</v>
+      </c>
+      <c r="U264" t="s">
+        <v>1416</v>
       </c>
       <c r="CH264" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW264" t="s">
+        <v>351</v>
       </c>
       <c r="DN264" t="s">
-        <v>430</v>
-      </c>
-      <c r="HC264" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD264" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG264" t="s">
-        <v>1412</v>
-      </c>
-      <c r="HN264" t="s">
-        <v>325</v>
+        <v>865</v>
+      </c>
+      <c r="EV264" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ264" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="D265" t="s">
-        <v>1415</v>
-      </c>
-      <c r="U265" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="CH265" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="CW265" t="s">
         <v>351</v>
       </c>
+      <c r="DH265" t="s">
+        <v>432</v>
+      </c>
       <c r="DN265" t="s">
-        <v>865</v>
+        <v>430</v>
       </c>
       <c r="EV265" t="s">
         <v>432</v>
       </c>
+      <c r="GD265" t="s">
+        <v>685</v>
+      </c>
       <c r="GZ265" t="s">
         <v>277</v>
       </c>
+      <c r="HC265" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD265" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG265" t="s">
+        <v>1420</v>
+      </c>
+      <c r="HN265" t="s">
+        <v>637</v>
+      </c>
+      <c r="HX265" t="s">
+        <v>295</v>
+      </c>
+      <c r="IC265" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="266" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="D266" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="CH266" t="s">
         <v>323</v>
       </c>
-      <c r="CW266" t="s">
-        <v>351</v>
-      </c>
-      <c r="DH266" t="s">
-        <v>432</v>
-      </c>
       <c r="DN266" t="s">
-        <v>430</v>
-      </c>
-      <c r="EV266" t="s">
-        <v>432</v>
-      </c>
-      <c r="GD266" t="s">
-        <v>685</v>
-      </c>
-      <c r="GZ266" t="s">
-        <v>277</v>
+        <v>623</v>
       </c>
       <c r="HC266" t="s">
         <v>278</v>
@@ -16054,88 +16084,85 @@
         <v>279</v>
       </c>
       <c r="HG266" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="HN266" t="s">
-        <v>637</v>
-      </c>
-      <c r="HX266" t="s">
-        <v>295</v>
-      </c>
-      <c r="IC266" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="HQ266" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="D267" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="CH267" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="DN267" t="s">
         <v>623</v>
       </c>
-      <c r="HC267" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD267" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG267" t="s">
-        <v>1424</v>
-      </c>
-      <c r="HN267" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ267" t="s">
-        <v>282</v>
+      <c r="EV267" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="268" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D268" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="CH268" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN268" t="s">
-        <v>623</v>
+        <v>323</v>
       </c>
       <c r="EV268" t="s">
         <v>432</v>
       </c>
+      <c r="HC268" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD268" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG268" t="s">
+        <v>1431</v>
+      </c>
+      <c r="HN268" t="s">
+        <v>637</v>
+      </c>
+      <c r="HQ268" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="269" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="D269" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="CH269" t="s">
         <v>323</v>
@@ -16150,27 +16177,33 @@
         <v>279</v>
       </c>
       <c r="HG269" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="HN269" t="s">
-        <v>637</v>
+        <v>325</v>
       </c>
       <c r="HQ269" t="s">
         <v>282</v>
+      </c>
+      <c r="HX269" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC269" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="270" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="D270" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="CH270" t="s">
         <v>323</v>
@@ -16178,145 +16211,151 @@
       <c r="EV270" t="s">
         <v>432</v>
       </c>
-      <c r="HC270" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD270" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG270" t="s">
-        <v>1435</v>
-      </c>
-      <c r="HN270" t="s">
-        <v>325</v>
-      </c>
-      <c r="HQ270" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX270" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC270" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="271" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D271" t="s">
-        <v>1438</v>
+        <v>1441</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>635</v>
       </c>
       <c r="CH271" t="s">
-        <v>323</v>
+        <v>795</v>
+      </c>
+      <c r="CW271" t="s">
+        <v>614</v>
+      </c>
+      <c r="DN271" t="s">
+        <v>755</v>
       </c>
       <c r="EV271" t="s">
         <v>432</v>
       </c>
+      <c r="FR271" t="s">
+        <v>1442</v>
+      </c>
+      <c r="GZ271" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC271" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD271" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG271" t="s">
+        <v>1443</v>
+      </c>
+      <c r="HH271" t="s">
+        <v>1444</v>
+      </c>
+      <c r="HN271" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ271" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX271" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC271" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="272" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="D272" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AS272" t="s">
-        <v>635</v>
+        <v>1447</v>
       </c>
       <c r="CH272" t="s">
         <v>795</v>
       </c>
-      <c r="CW272" t="s">
-        <v>614</v>
-      </c>
       <c r="DN272" t="s">
-        <v>755</v>
+        <v>513</v>
       </c>
       <c r="EV272" t="s">
         <v>432</v>
       </c>
-      <c r="FR272" t="s">
-        <v>1442</v>
-      </c>
-      <c r="GZ272" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC272" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD272" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG272" t="s">
-        <v>1443</v>
-      </c>
-      <c r="HH272" t="s">
-        <v>1444</v>
-      </c>
-      <c r="HN272" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ272" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX272" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC272" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="273" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D273" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="CH273" t="s">
-        <v>795</v>
-      </c>
-      <c r="DN273" t="s">
-        <v>513</v>
-      </c>
-      <c r="EV273" t="s">
-        <v>432</v>
+        <v>276</v>
+      </c>
+      <c r="HC273" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD273" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG273" t="s">
+        <v>1451</v>
+      </c>
+      <c r="HN273" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ273" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX273" t="s">
+        <v>416</v>
+      </c>
+      <c r="IC273" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="274" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="D274" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CH274" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="EV274" t="s">
+        <v>282</v>
+      </c>
+      <c r="FU274" t="s">
+        <v>1455</v>
+      </c>
+      <c r="GZ274" t="s">
+        <v>277</v>
       </c>
       <c r="HC274" t="s">
         <v>278</v>
@@ -16325,45 +16364,33 @@
         <v>279</v>
       </c>
       <c r="HG274" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="HN274" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ274" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="HX274" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="IC274" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="275" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="D275" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="CH275" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV275" t="s">
-        <v>282</v>
-      </c>
-      <c r="FU275" t="s">
-        <v>1455</v>
-      </c>
-      <c r="GZ275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="HC275" t="s">
         <v>278</v>
@@ -16372,118 +16399,124 @@
         <v>279</v>
       </c>
       <c r="HG275" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="HN275" t="s">
-        <v>325</v>
+        <v>384</v>
+      </c>
+      <c r="HQ275" t="s">
+        <v>282</v>
       </c>
       <c r="HX275" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="IC275" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="276" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="D276" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CH276" t="s">
-        <v>276</v>
-      </c>
-      <c r="HC276" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD276" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG276" t="s">
-        <v>1460</v>
-      </c>
-      <c r="HN276" t="s">
-        <v>384</v>
-      </c>
-      <c r="HQ276" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX276" t="s">
-        <v>358</v>
-      </c>
-      <c r="IC276" t="s">
-        <v>358</v>
+        <v>795</v>
+      </c>
+      <c r="CW276" t="s">
+        <v>614</v>
+      </c>
+      <c r="EL276" t="s">
+        <v>1464</v>
+      </c>
+      <c r="FR276" t="s">
+        <v>873</v>
+      </c>
+      <c r="GZ276" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="D277" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CH277" t="s">
         <v>795</v>
       </c>
       <c r="CW277" t="s">
-        <v>614</v>
-      </c>
-      <c r="EL277" t="s">
-        <v>1464</v>
+        <v>351</v>
       </c>
       <c r="FR277" t="s">
         <v>873</v>
       </c>
-      <c r="GZ277" t="s">
-        <v>277</v>
+      <c r="HC277" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD277" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG277" t="s">
+        <v>1468</v>
+      </c>
+      <c r="HH277" t="s">
+        <v>1469</v>
+      </c>
+      <c r="HN277" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ277" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX277" t="s">
+        <v>645</v>
+      </c>
+      <c r="IC277" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="278" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="D278" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="CH278" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW278" t="s">
-        <v>351</v>
-      </c>
-      <c r="FR278" t="s">
-        <v>873</v>
+        <v>350</v>
+      </c>
+      <c r="GZ278" t="s">
+        <v>277</v>
       </c>
       <c r="HC278" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD278" t="s">
         <v>279</v>
       </c>
       <c r="HG278" t="s">
-        <v>1468</v>
-      </c>
-      <c r="HH278" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="HN278" t="s">
         <v>294</v>
@@ -16492,302 +16525,284 @@
         <v>282</v>
       </c>
       <c r="HX278" t="s">
-        <v>645</v>
-      </c>
-      <c r="IC278" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="D279" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="CH279" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="EV279" t="s">
+        <v>432</v>
       </c>
       <c r="GZ279" t="s">
         <v>277</v>
       </c>
-      <c r="HC279" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD279" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG279" t="s">
-        <v>1473</v>
-      </c>
-      <c r="HN279" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ279" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX279" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="280" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="D280" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="CH280" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV280" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ280" t="s">
-        <v>277</v>
+        <v>350</v>
+      </c>
+      <c r="DN280" t="s">
+        <v>815</v>
+      </c>
+      <c r="FR280" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="281" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D281" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="CH281" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN281" t="s">
-        <v>815</v>
-      </c>
-      <c r="FR281" t="s">
-        <v>873</v>
+        <v>276</v>
+      </c>
+      <c r="EH281" t="s">
+        <v>1483</v>
+      </c>
+      <c r="HC281" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD281" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG281" t="s">
+        <v>1484</v>
+      </c>
+      <c r="HH281" t="s">
+        <v>1485</v>
+      </c>
+      <c r="HN281" t="s">
+        <v>329</v>
+      </c>
+      <c r="HO281" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ281" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX281" t="s">
+        <v>573</v>
+      </c>
+      <c r="IC281" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="D282" t="s">
-        <v>1482</v>
+        <v>1488</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>432</v>
       </c>
       <c r="CH282" t="s">
-        <v>276</v>
-      </c>
-      <c r="EH282" t="s">
-        <v>1483</v>
+        <v>350</v>
+      </c>
+      <c r="CW282" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN282" t="s">
+        <v>755</v>
+      </c>
+      <c r="DX282" t="s">
+        <v>432</v>
+      </c>
+      <c r="EV282" t="s">
+        <v>282</v>
+      </c>
+      <c r="FR282" t="s">
+        <v>1489</v>
+      </c>
+      <c r="GD282" t="s">
+        <v>1192</v>
+      </c>
+      <c r="GZ282" t="s">
+        <v>277</v>
       </c>
       <c r="HC282" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD282" t="s">
-        <v>279</v>
+        <v>984</v>
       </c>
       <c r="HG282" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="HH282" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="HN282" t="s">
-        <v>329</v>
-      </c>
-      <c r="HO282" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="HQ282" t="s">
         <v>282</v>
       </c>
       <c r="HX282" t="s">
-        <v>573</v>
-      </c>
-      <c r="IC282" t="s">
-        <v>573</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="283" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="D283" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Y283" t="s">
-        <v>432</v>
+        <v>1495</v>
       </c>
       <c r="CH283" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW283" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN283" t="s">
-        <v>755</v>
-      </c>
-      <c r="DX283" t="s">
-        <v>432</v>
-      </c>
-      <c r="EV283" t="s">
-        <v>282</v>
-      </c>
-      <c r="FR283" t="s">
-        <v>1489</v>
-      </c>
-      <c r="GD283" t="s">
-        <v>1192</v>
-      </c>
-      <c r="GZ283" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="HC283" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD283" t="s">
-        <v>984</v>
+        <v>279</v>
       </c>
       <c r="HG283" t="s">
-        <v>1490</v>
-      </c>
-      <c r="HH283" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="HN283" t="s">
-        <v>294</v>
+        <v>559</v>
       </c>
       <c r="HQ283" t="s">
         <v>282</v>
-      </c>
-      <c r="HX283" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="284" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="D284" t="s">
-        <v>1495</v>
+        <v>1499</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>571</v>
       </c>
       <c r="CH284" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="CW284" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN284" t="s">
+        <v>623</v>
+      </c>
+      <c r="FR284" t="s">
+        <v>1500</v>
       </c>
       <c r="HC284" t="s">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="HD284" t="s">
         <v>279</v>
       </c>
       <c r="HG284" t="s">
-        <v>1496</v>
+        <v>1501</v>
+      </c>
+      <c r="HH284" t="s">
+        <v>1502</v>
       </c>
       <c r="HN284" t="s">
-        <v>559</v>
-      </c>
-      <c r="HQ284" t="s">
-        <v>282</v>
+        <v>294</v>
+      </c>
+      <c r="HX284" t="s">
+        <v>315</v>
+      </c>
+      <c r="IC284" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="B285">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="D285" t="s">
-        <v>1499</v>
-      </c>
-      <c r="Y285" t="s">
-        <v>571</v>
+        <v>1503</v>
       </c>
       <c r="CH285" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW285" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN285" t="s">
-        <v>623</v>
-      </c>
-      <c r="FR285" t="s">
-        <v>1500</v>
-      </c>
-      <c r="HC285" t="s">
-        <v>625</v>
-      </c>
-      <c r="HD285" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG285" t="s">
-        <v>1501</v>
-      </c>
-      <c r="HH285" t="s">
-        <v>1502</v>
-      </c>
-      <c r="HN285" t="s">
-        <v>294</v>
-      </c>
-      <c r="HX285" t="s">
-        <v>315</v>
-      </c>
-      <c r="IC285" t="s">
-        <v>315</v>
+        <v>276</v>
+      </c>
+      <c r="EV285" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="286" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D286" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="CH286" t="s">
-        <v>276</v>
+        <v>350</v>
+      </c>
+      <c r="DN286" t="s">
+        <v>513</v>
       </c>
       <c r="EV286" t="s">
         <v>432</v>
@@ -16795,122 +16810,140 @@
     </row>
     <row r="287" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="D287" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="CH287" t="s">
         <v>350</v>
       </c>
+      <c r="CW287" t="s">
+        <v>614</v>
+      </c>
       <c r="DN287" t="s">
-        <v>513</v>
-      </c>
-      <c r="EV287" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="EL287" t="s">
+        <v>1511</v>
+      </c>
+      <c r="GZ287" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC287" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD287" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG287" t="s">
+        <v>1512</v>
+      </c>
+      <c r="HN287" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ287" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX287" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC287" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D288" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="CH288" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW288" t="s">
-        <v>614</v>
-      </c>
-      <c r="DN288" t="s">
-        <v>430</v>
-      </c>
-      <c r="EL288" t="s">
-        <v>1511</v>
+        <v>323</v>
+      </c>
+      <c r="EV288" t="s">
+        <v>432</v>
       </c>
       <c r="GZ288" t="s">
         <v>277</v>
       </c>
-      <c r="HC288" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD288" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG288" t="s">
-        <v>1512</v>
-      </c>
-      <c r="HN288" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ288" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX288" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC288" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="289" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D289" t="s">
-        <v>1515</v>
+        <v>1518</v>
+      </c>
+      <c r="AS289" t="s">
+        <v>635</v>
       </c>
       <c r="CH289" t="s">
         <v>323</v>
       </c>
-      <c r="EV289" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ289" t="s">
-        <v>277</v>
+      <c r="CW289" t="s">
+        <v>351</v>
+      </c>
+      <c r="HC289" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD289" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG289" t="s">
+        <v>1519</v>
+      </c>
+      <c r="HN289" t="s">
+        <v>410</v>
+      </c>
+      <c r="HQ289" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="D290" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AS290" t="s">
-        <v>635</v>
+        <v>1522</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1523</v>
       </c>
       <c r="CH290" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="CW290" t="s">
         <v>351</v>
       </c>
+      <c r="EV290" t="s">
+        <v>432</v>
+      </c>
       <c r="HC290" t="s">
         <v>278</v>
       </c>
@@ -16918,7 +16951,7 @@
         <v>279</v>
       </c>
       <c r="HG290" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="HN290" t="s">
         <v>410</v>
@@ -16926,96 +16959,96 @@
       <c r="HQ290" t="s">
         <v>282</v>
       </c>
+      <c r="HX290" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC290" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="291" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="D291" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1523</v>
+        <v>1527</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1528</v>
       </c>
       <c r="CH291" t="s">
-        <v>350</v>
-      </c>
-      <c r="CW291" t="s">
-        <v>351</v>
-      </c>
-      <c r="EV291" t="s">
-        <v>432</v>
-      </c>
-      <c r="HC291" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD291" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG291" t="s">
-        <v>1524</v>
-      </c>
-      <c r="HN291" t="s">
-        <v>410</v>
-      </c>
-      <c r="HQ291" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX291" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC291" t="s">
-        <v>438</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="D292" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="CH292" t="s">
         <v>276</v>
       </c>
+      <c r="DH292" t="s">
+        <v>432</v>
+      </c>
+      <c r="GZ292" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC292" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD292" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG292" t="s">
+        <v>1532</v>
+      </c>
+      <c r="HN292" t="s">
+        <v>325</v>
+      </c>
+      <c r="HX292" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC292" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="293" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="D293" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH293" t="s">
-        <v>276</v>
-      </c>
-      <c r="DH293" t="s">
+        <v>323</v>
+      </c>
+      <c r="DN293" t="s">
+        <v>430</v>
+      </c>
+      <c r="EV293" t="s">
         <v>432</v>
       </c>
-      <c r="GZ293" t="s">
-        <v>277</v>
-      </c>
       <c r="HC293" t="s">
         <v>278</v>
       </c>
@@ -17023,10 +17056,10 @@
         <v>279</v>
       </c>
       <c r="HG293" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="HN293" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="HX293" t="s">
         <v>438</v>
@@ -17037,141 +17070,153 @@
     </row>
     <row r="294" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="D294" t="s">
-        <v>1535</v>
+        <v>1646</v>
       </c>
       <c r="CH294" t="s">
-        <v>323</v>
-      </c>
-      <c r="DN294" t="s">
-        <v>430</v>
+        <v>183</v>
       </c>
       <c r="EV294" t="s">
         <v>432</v>
       </c>
-      <c r="HC294" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD294" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG294" t="s">
-        <v>1536</v>
-      </c>
-      <c r="HN294" t="s">
-        <v>309</v>
-      </c>
-      <c r="HX294" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC294" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="295" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B295">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="D295" t="s">
-        <v>1646</v>
+        <v>1541</v>
       </c>
       <c r="CH295" t="s">
-        <v>183</v>
-      </c>
-      <c r="EV295" t="s">
-        <v>432</v>
+        <v>276</v>
+      </c>
+      <c r="GZ295" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC295" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD295" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG295" t="s">
+        <v>1542</v>
+      </c>
+      <c r="HN295" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ295" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX295" t="s">
+        <v>370</v>
+      </c>
+      <c r="IC295" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="296" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="D296" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CH296" t="s">
-        <v>276</v>
-      </c>
-      <c r="GZ296" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC296" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD296" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG296" t="s">
-        <v>1542</v>
-      </c>
-      <c r="HN296" t="s">
-        <v>309</v>
-      </c>
-      <c r="HQ296" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX296" t="s">
-        <v>370</v>
-      </c>
-      <c r="IC296" t="s">
-        <v>370</v>
+        <v>323</v>
+      </c>
+      <c r="EV296" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="297" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="D297" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="CH297" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV297" t="s">
-        <v>432</v>
+        <v>276</v>
+      </c>
+      <c r="HC297" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD297" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG297" t="s">
+        <v>1549</v>
+      </c>
+      <c r="HN297" t="s">
+        <v>410</v>
+      </c>
+      <c r="HQ297" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX297" t="s">
+        <v>364</v>
+      </c>
+      <c r="IC297" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="298" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="D298" t="s">
-        <v>1548</v>
+        <v>1552</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>635</v>
       </c>
       <c r="CH298" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="DX298" t="s">
+        <v>432</v>
+      </c>
+      <c r="EV298" t="s">
+        <v>432</v>
       </c>
       <c r="HC298" t="s">
         <v>278</v>
@@ -17180,301 +17225,268 @@
         <v>279</v>
       </c>
       <c r="HG298" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="HN298" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="HQ298" t="s">
         <v>282</v>
-      </c>
-      <c r="HX298" t="s">
-        <v>364</v>
-      </c>
-      <c r="IC298" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="299" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="B299">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="D299" t="s">
-        <v>1552</v>
-      </c>
-      <c r="Y299" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU299" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AW299" t="s">
-        <v>635</v>
+        <v>1557</v>
       </c>
       <c r="CH299" t="s">
-        <v>323</v>
-      </c>
-      <c r="DX299" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="EV299" t="s">
         <v>432</v>
       </c>
-      <c r="HC299" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD299" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG299" t="s">
-        <v>1554</v>
-      </c>
-      <c r="HN299" t="s">
-        <v>559</v>
-      </c>
-      <c r="HQ299" t="s">
-        <v>282</v>
+      <c r="GZ299" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="300" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="D300" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="CH300" t="s">
-        <v>350</v>
-      </c>
-      <c r="EV300" t="s">
-        <v>432</v>
-      </c>
-      <c r="GZ300" t="s">
-        <v>277</v>
+        <v>795</v>
+      </c>
+      <c r="CW300" t="s">
+        <v>606</v>
+      </c>
+      <c r="DN300" t="s">
+        <v>513</v>
+      </c>
+      <c r="FR300" t="s">
+        <v>1561</v>
+      </c>
+      <c r="HC300" t="s">
+        <v>1562</v>
+      </c>
+      <c r="HD300" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG300" t="s">
+        <v>1563</v>
+      </c>
+      <c r="HH300" t="s">
+        <v>1564</v>
+      </c>
+      <c r="HN300" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ300" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX300" t="s">
+        <v>370</v>
+      </c>
+      <c r="IC300" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="301" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
       <c r="B301">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
       <c r="D301" t="s">
-        <v>1560</v>
+        <v>1567</v>
       </c>
       <c r="CH301" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW301" t="s">
-        <v>606</v>
-      </c>
-      <c r="DN301" t="s">
-        <v>513</v>
-      </c>
-      <c r="FR301" t="s">
-        <v>1561</v>
+        <v>276</v>
+      </c>
+      <c r="EV301" t="s">
+        <v>432</v>
       </c>
       <c r="HC301" t="s">
-        <v>1562</v>
+        <v>278</v>
       </c>
       <c r="HD301" t="s">
         <v>279</v>
       </c>
       <c r="HG301" t="s">
-        <v>1563</v>
-      </c>
-      <c r="HH301" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="HN301" t="s">
         <v>309</v>
       </c>
-      <c r="HQ301" t="s">
-        <v>282</v>
-      </c>
       <c r="HX301" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="IC301" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="302" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="D302" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="CH302" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="EV302" t="s">
         <v>432</v>
       </c>
-      <c r="HC302" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD302" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG302" t="s">
-        <v>1568</v>
-      </c>
-      <c r="HN302" t="s">
-        <v>309</v>
-      </c>
-      <c r="HX302" t="s">
-        <v>375</v>
-      </c>
-      <c r="IC302" t="s">
-        <v>375</v>
+      <c r="FR302" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="303" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B303">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D303" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="CH303" t="s">
-        <v>350</v>
+        <v>795</v>
       </c>
       <c r="EV303" t="s">
         <v>432</v>
       </c>
       <c r="FR303" t="s">
-        <v>1376</v>
+        <v>1575</v>
+      </c>
+      <c r="GZ303" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="304" spans="1:237" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="B304">
         <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="D304" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="CH304" t="s">
-        <v>795</v>
+        <v>323</v>
+      </c>
+      <c r="CW304" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN304" t="s">
+        <v>623</v>
       </c>
       <c r="EV304" t="s">
         <v>432</v>
       </c>
-      <c r="FR304" t="s">
-        <v>1575</v>
-      </c>
       <c r="GZ304" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D305" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="CH305" t="s">
-        <v>323</v>
+        <v>795</v>
       </c>
       <c r="CW305" t="s">
-        <v>351</v>
+        <v>606</v>
       </c>
       <c r="DN305" t="s">
-        <v>623</v>
+        <v>865</v>
       </c>
       <c r="EV305" t="s">
         <v>432</v>
       </c>
-      <c r="GZ305" t="s">
-        <v>277</v>
+      <c r="FR305" t="s">
+        <v>1170</v>
+      </c>
+      <c r="IV305" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="306" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="D306" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="CH306" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW306" t="s">
-        <v>606</v>
-      </c>
-      <c r="DN306" t="s">
-        <v>865</v>
+        <v>323</v>
       </c>
       <c r="EV306" t="s">
         <v>432</v>
       </c>
-      <c r="FR306" t="s">
-        <v>1170</v>
-      </c>
-      <c r="IV306" t="s">
-        <v>1582</v>
-      </c>
     </row>
     <row r="307" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B307">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="D307" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="CH307" t="s">
         <v>323</v>
@@ -17485,16 +17497,16 @@
     </row>
     <row r="308" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="D308" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="CH308" t="s">
         <v>323</v>
@@ -17505,261 +17517,276 @@
     </row>
     <row r="309" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="D309" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="CH309" t="s">
-        <v>323</v>
-      </c>
-      <c r="EV309" t="s">
-        <v>432</v>
+        <v>350</v>
+      </c>
+      <c r="CX309" t="s">
+        <v>614</v>
+      </c>
+      <c r="CZ309" t="s">
+        <v>495</v>
+      </c>
+      <c r="DN309" t="s">
+        <v>623</v>
+      </c>
+      <c r="FR309" t="s">
+        <v>1595</v>
+      </c>
+      <c r="GZ309" t="s">
+        <v>277</v>
+      </c>
+      <c r="HC309" t="s">
+        <v>625</v>
+      </c>
+      <c r="HD309" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG309" t="s">
+        <v>1596</v>
+      </c>
+      <c r="HH309" t="s">
+        <v>1597</v>
+      </c>
+      <c r="HN309" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ309" t="s">
+        <v>282</v>
+      </c>
+      <c r="HX309" t="s">
+        <v>582</v>
+      </c>
+      <c r="IC309" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="310" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
       <c r="D310" t="s">
-        <v>1594</v>
+        <v>1601</v>
       </c>
       <c r="CH310" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="CW310" t="s">
+        <v>614</v>
       </c>
       <c r="CX310" t="s">
-        <v>614</v>
+        <v>495</v>
       </c>
       <c r="CZ310" t="s">
-        <v>495</v>
-      </c>
-      <c r="DN310" t="s">
-        <v>623</v>
-      </c>
-      <c r="FR310" t="s">
-        <v>1595</v>
+        <v>351</v>
+      </c>
+      <c r="GD310" t="s">
+        <v>563</v>
       </c>
       <c r="GZ310" t="s">
         <v>277</v>
       </c>
       <c r="HC310" t="s">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="HD310" t="s">
         <v>279</v>
       </c>
       <c r="HG310" t="s">
-        <v>1596</v>
-      </c>
-      <c r="HH310" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="HN310" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="HQ310" t="s">
         <v>282</v>
       </c>
       <c r="HX310" t="s">
-        <v>582</v>
+        <v>504</v>
       </c>
       <c r="IC310" t="s">
-        <v>1598</v>
+        <v>504</v>
+      </c>
+      <c r="IZ310" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="311" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C311" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="D311" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="CH311" t="s">
-        <v>323</v>
-      </c>
-      <c r="CW311" t="s">
-        <v>614</v>
-      </c>
-      <c r="CX311" t="s">
-        <v>495</v>
-      </c>
-      <c r="CZ311" t="s">
-        <v>351</v>
-      </c>
-      <c r="GD311" t="s">
-        <v>563</v>
-      </c>
-      <c r="GZ311" t="s">
-        <v>277</v>
-      </c>
-      <c r="HC311" t="s">
-        <v>278</v>
-      </c>
-      <c r="HD311" t="s">
-        <v>279</v>
-      </c>
-      <c r="HG311" t="s">
-        <v>1602</v>
-      </c>
-      <c r="HN311" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ311" t="s">
-        <v>282</v>
-      </c>
-      <c r="HX311" t="s">
-        <v>504</v>
-      </c>
-      <c r="IC311" t="s">
-        <v>504</v>
-      </c>
-      <c r="IZ311" t="s">
-        <v>1603</v>
+        <v>168</v>
+      </c>
+      <c r="EV311" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="D312" t="s">
-        <v>1606</v>
+        <v>1609</v>
+      </c>
+      <c r="M312" t="s">
+        <v>946</v>
+      </c>
+      <c r="AS312" t="s">
+        <v>635</v>
       </c>
       <c r="CH312" t="s">
-        <v>168</v>
+        <v>795</v>
+      </c>
+      <c r="CW312" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN312" t="s">
+        <v>513</v>
       </c>
       <c r="EV312" t="s">
         <v>432</v>
       </c>
+      <c r="FR312" t="s">
+        <v>1610</v>
+      </c>
+      <c r="GP312" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="313" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="B313">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="D313" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M313" t="s">
-        <v>946</v>
-      </c>
-      <c r="AS313" t="s">
-        <v>635</v>
+        <v>1613</v>
       </c>
       <c r="CH313" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW313" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN313" t="s">
-        <v>513</v>
+        <v>350</v>
       </c>
       <c r="EV313" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR313" t="s">
-        <v>1610</v>
-      </c>
-      <c r="GP313" t="s">
-        <v>948</v>
+        <v>282</v>
+      </c>
+      <c r="GZ313" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="314" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C314" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="D314" t="s">
-        <v>1613</v>
+        <v>1616</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>432</v>
       </c>
       <c r="CH314" t="s">
-        <v>350</v>
+        <v>795</v>
+      </c>
+      <c r="CW314" t="s">
+        <v>351</v>
+      </c>
+      <c r="DA314" t="s">
+        <v>495</v>
       </c>
       <c r="EV314" t="s">
-        <v>282</v>
-      </c>
-      <c r="GZ314" t="s">
-        <v>277</v>
+        <v>432</v>
+      </c>
+      <c r="FR314" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="315" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="B315">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="D315" t="s">
-        <v>1616</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>432</v>
+        <v>974</v>
       </c>
       <c r="CH315" t="s">
         <v>795</v>
       </c>
       <c r="CW315" t="s">
-        <v>351</v>
-      </c>
-      <c r="DA315" t="s">
-        <v>495</v>
+        <v>614</v>
+      </c>
+      <c r="DN315" t="s">
+        <v>755</v>
       </c>
       <c r="EV315" t="s">
         <v>432</v>
       </c>
       <c r="FR315" t="s">
-        <v>1617</v>
+        <v>975</v>
+      </c>
+      <c r="GZ315" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="316" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B316">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C316" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D316" t="s">
-        <v>974</v>
+        <v>1622</v>
+      </c>
+      <c r="G316" t="s">
+        <v>432</v>
       </c>
       <c r="CH316" t="s">
         <v>795</v>
@@ -17767,9 +17794,6 @@
       <c r="CW316" t="s">
         <v>614</v>
       </c>
-      <c r="DN316" t="s">
-        <v>755</v>
-      </c>
       <c r="EV316" t="s">
         <v>432</v>
       </c>
@@ -17782,19 +17806,16 @@
     </row>
     <row r="317" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="B317">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="D317" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G317" t="s">
-        <v>432</v>
+        <v>1625</v>
       </c>
       <c r="CH317" t="s">
         <v>795</v>
@@ -17802,11 +17823,14 @@
       <c r="CW317" t="s">
         <v>614</v>
       </c>
+      <c r="DN317" t="s">
+        <v>755</v>
+      </c>
       <c r="EV317" t="s">
         <v>432</v>
       </c>
-      <c r="FR317" t="s">
-        <v>975</v>
+      <c r="GD317" t="s">
+        <v>685</v>
       </c>
       <c r="GZ317" t="s">
         <v>277</v>
@@ -17814,16 +17838,16 @@
     </row>
     <row r="318" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="B318">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C318" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D318" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="CH318" t="s">
         <v>795</v>
@@ -17837,8 +17861,8 @@
       <c r="EV318" t="s">
         <v>432</v>
       </c>
-      <c r="GD318" t="s">
-        <v>685</v>
+      <c r="FR318" t="s">
+        <v>975</v>
       </c>
       <c r="GZ318" t="s">
         <v>277</v>
@@ -17846,196 +17870,164 @@
     </row>
     <row r="319" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B319">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D319" t="s">
-        <v>1626</v>
+        <v>1630</v>
+      </c>
+      <c r="AS319" t="s">
+        <v>362</v>
       </c>
       <c r="CH319" t="s">
-        <v>795</v>
+        <v>323</v>
       </c>
       <c r="CW319" t="s">
-        <v>614</v>
-      </c>
-      <c r="DN319" t="s">
-        <v>755</v>
-      </c>
-      <c r="EV319" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR319" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="GZ319" t="s">
         <v>277</v>
       </c>
+      <c r="HC319" t="s">
+        <v>278</v>
+      </c>
+      <c r="HD319" t="s">
+        <v>279</v>
+      </c>
+      <c r="HG319" t="s">
+        <v>1631</v>
+      </c>
+      <c r="HN319" t="s">
+        <v>309</v>
+      </c>
+      <c r="HX319" t="s">
+        <v>438</v>
+      </c>
+      <c r="IC319" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="320" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="D320" t="s">
-        <v>1630</v>
-      </c>
-      <c r="AS320" t="s">
-        <v>362</v>
+        <v>1634</v>
       </c>
       <c r="CH320" t="s">
-        <v>323</v>
+        <v>795</v>
       </c>
       <c r="CW320" t="s">
         <v>351</v>
       </c>
-      <c r="GZ320" t="s">
-        <v>277</v>
+      <c r="DN320" t="s">
+        <v>815</v>
+      </c>
+      <c r="EV320" t="s">
+        <v>432</v>
+      </c>
+      <c r="FR320" t="s">
+        <v>1635</v>
       </c>
       <c r="HC320" t="s">
-        <v>278</v>
+        <v>892</v>
       </c>
       <c r="HD320" t="s">
-        <v>279</v>
+        <v>1636</v>
       </c>
       <c r="HG320" t="s">
-        <v>1631</v>
+        <v>1637</v>
+      </c>
+      <c r="HH320" t="s">
+        <v>1638</v>
       </c>
       <c r="HN320" t="s">
-        <v>309</v>
-      </c>
-      <c r="HX320" t="s">
-        <v>438</v>
-      </c>
-      <c r="IC320" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="321" spans="1:225" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="HQ320" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="321" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="D321" t="s">
-        <v>1634</v>
+        <v>1009</v>
       </c>
       <c r="CH321" t="s">
-        <v>795</v>
+        <v>350</v>
       </c>
       <c r="CW321" t="s">
         <v>351</v>
       </c>
-      <c r="DN321" t="s">
-        <v>815</v>
-      </c>
       <c r="EV321" t="s">
         <v>432</v>
       </c>
-      <c r="FR321" t="s">
-        <v>1635</v>
-      </c>
-      <c r="HC321" t="s">
-        <v>892</v>
-      </c>
-      <c r="HD321" t="s">
-        <v>1636</v>
-      </c>
-      <c r="HG321" t="s">
-        <v>1637</v>
-      </c>
-      <c r="HH321" t="s">
-        <v>1638</v>
-      </c>
-      <c r="HN321" t="s">
-        <v>294</v>
-      </c>
-      <c r="HQ321" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="322" spans="1:225" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B322">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D322" t="s">
-        <v>1009</v>
+        <v>1641</v>
+      </c>
+      <c r="AW322" t="s">
+        <v>635</v>
       </c>
       <c r="CH322" t="s">
         <v>350</v>
       </c>
-      <c r="CW322" t="s">
-        <v>351</v>
-      </c>
-      <c r="EV322" t="s">
+      <c r="DN322" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="323" spans="1:174" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B323">
+        <v>8</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CH323" t="s">
+        <v>795</v>
+      </c>
+      <c r="CW323" t="s">
+        <v>614</v>
+      </c>
+      <c r="EV323" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="323" spans="1:225" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1641</v>
-      </c>
-      <c r="AW323" t="s">
-        <v>635</v>
-      </c>
-      <c r="CH323" t="s">
-        <v>350</v>
-      </c>
-      <c r="DN323" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="324" spans="1:225" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B324">
-        <v>8</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1645</v>
-      </c>
-      <c r="CH324" t="s">
-        <v>795</v>
-      </c>
-      <c r="CW324" t="s">
-        <v>614</v>
-      </c>
-      <c r="EV324" t="s">
-        <v>432</v>
-      </c>
-      <c r="FR324" t="s">
+      <c r="FR323" t="s">
         <v>1376</v>
       </c>
     </row>
